--- a/data/raw/SAE/2015/PLANILLA_Estimaciones_comunales_tasa_pobreza_por_ingresos_multidimensional_2015.xlsx
+++ b/data/raw/SAE/2015/PLANILLA_Estimaciones_comunales_tasa_pobreza_por_ingresos_multidimensional_2015.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d135da842735aabe/Documentos/GitHub/e-gov-index/data/raw/SAE/2015/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_6CECFA02CC23D957E208082577D4E7DC19CF5FFE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D73401A6-B91C-4B60-8D7A-49B7E75B27A5}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="20115" windowHeight="7560" tabRatio="679"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="679" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ingresos2015" sheetId="16" r:id="rId1"/>
@@ -1146,7 +1152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1264,16 +1270,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1281,12 +1287,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1328,7 +1337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1361,9 +1370,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1396,6 +1422,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1571,39 +1614,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:I349"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C347" sqref="C347"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="4" customWidth="1"/>
     <col min="3" max="4" width="23" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="4" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5703125" style="5"/>
+    <col min="5" max="5" width="27.88671875" style="4" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="30.109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="3" spans="1:9" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1101</v>
       </c>
@@ -1654,9 +1697,9 @@
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1107</v>
       </c>
@@ -1681,9 +1724,9 @@
       <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1401</v>
       </c>
@@ -1708,9 +1751,9 @@
       <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1402</v>
       </c>
@@ -1735,9 +1778,9 @@
       <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>1403</v>
       </c>
@@ -1758,9 +1801,9 @@
       <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1404</v>
       </c>
@@ -1785,9 +1828,9 @@
       <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>1405</v>
       </c>
@@ -1812,9 +1855,9 @@
       <c r="H10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>2101</v>
       </c>
@@ -1839,9 +1882,9 @@
       <c r="H11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>2102</v>
       </c>
@@ -1866,9 +1909,9 @@
       <c r="H12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>2103</v>
       </c>
@@ -1893,9 +1936,9 @@
       <c r="H13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>2104</v>
       </c>
@@ -1920,9 +1963,9 @@
       <c r="H14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>2201</v>
       </c>
@@ -1947,9 +1990,9 @@
       <c r="H15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>2202</v>
       </c>
@@ -1970,9 +2013,9 @@
       <c r="H16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>2203</v>
       </c>
@@ -1997,9 +2040,9 @@
       <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>2301</v>
       </c>
@@ -2024,9 +2067,9 @@
       <c r="H18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>2302</v>
       </c>
@@ -2051,9 +2094,9 @@
       <c r="H19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>3101</v>
       </c>
@@ -2078,9 +2121,9 @@
       <c r="H20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>3102</v>
       </c>
@@ -2105,9 +2148,9 @@
       <c r="H21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>3103</v>
       </c>
@@ -2132,9 +2175,9 @@
       <c r="H22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>3201</v>
       </c>
@@ -2159,9 +2202,9 @@
       <c r="H23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>3202</v>
       </c>
@@ -2186,9 +2229,9 @@
       <c r="H24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>3301</v>
       </c>
@@ -2213,9 +2256,9 @@
       <c r="H25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>3302</v>
       </c>
@@ -2240,9 +2283,9 @@
       <c r="H26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>3303</v>
       </c>
@@ -2267,9 +2310,9 @@
       <c r="H27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>3304</v>
       </c>
@@ -2294,9 +2337,9 @@
       <c r="H28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>4101</v>
       </c>
@@ -2321,9 +2364,9 @@
       <c r="H29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>4102</v>
       </c>
@@ -2348,9 +2391,9 @@
       <c r="H30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>4103</v>
       </c>
@@ -2375,9 +2418,9 @@
       <c r="H31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>4104</v>
       </c>
@@ -2402,9 +2445,9 @@
       <c r="H32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>4105</v>
       </c>
@@ -2429,9 +2472,9 @@
       <c r="H33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>4106</v>
       </c>
@@ -2456,9 +2499,9 @@
       <c r="H34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>4201</v>
       </c>
@@ -2483,9 +2526,9 @@
       <c r="H35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>4202</v>
       </c>
@@ -2510,9 +2553,9 @@
       <c r="H36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>4203</v>
       </c>
@@ -2537,9 +2580,9 @@
       <c r="H37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>4204</v>
       </c>
@@ -2564,9 +2607,9 @@
       <c r="H38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>4301</v>
       </c>
@@ -2591,9 +2634,9 @@
       <c r="H39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>4302</v>
       </c>
@@ -2618,9 +2661,9 @@
       <c r="H40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>4303</v>
       </c>
@@ -2645,9 +2688,9 @@
       <c r="H41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>4304</v>
       </c>
@@ -2672,9 +2715,9 @@
       <c r="H42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>4305</v>
       </c>
@@ -2699,9 +2742,9 @@
       <c r="H43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>5101</v>
       </c>
@@ -2726,9 +2769,9 @@
       <c r="H44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>5102</v>
       </c>
@@ -2753,9 +2796,9 @@
       <c r="H45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>5103</v>
       </c>
@@ -2780,9 +2823,9 @@
       <c r="H46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I46" s="14"/>
-    </row>
-    <row r="47" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>5104</v>
       </c>
@@ -2803,9 +2846,9 @@
       <c r="H47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="14"/>
-    </row>
-    <row r="48" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>5105</v>
       </c>
@@ -2830,9 +2873,9 @@
       <c r="H48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I48" s="14"/>
-    </row>
-    <row r="49" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="13"/>
+    </row>
+    <row r="49" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>5107</v>
       </c>
@@ -2857,9 +2900,9 @@
       <c r="H49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I49" s="14"/>
-    </row>
-    <row r="50" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="13"/>
+    </row>
+    <row r="50" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>5109</v>
       </c>
@@ -2884,9 +2927,9 @@
       <c r="H50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="14"/>
-    </row>
-    <row r="51" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>5201</v>
       </c>
@@ -2907,9 +2950,9 @@
       <c r="H51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I51" s="14"/>
-    </row>
-    <row r="52" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="13"/>
+    </row>
+    <row r="52" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>5301</v>
       </c>
@@ -2934,9 +2977,9 @@
       <c r="H52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I52" s="14"/>
-    </row>
-    <row r="53" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="13"/>
+    </row>
+    <row r="53" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>5302</v>
       </c>
@@ -2961,9 +3004,9 @@
       <c r="H53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I53" s="14"/>
-    </row>
-    <row r="54" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="13"/>
+    </row>
+    <row r="54" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>5303</v>
       </c>
@@ -2988,9 +3031,9 @@
       <c r="H54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I54" s="14"/>
-    </row>
-    <row r="55" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="13"/>
+    </row>
+    <row r="55" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>5304</v>
       </c>
@@ -3015,9 +3058,9 @@
       <c r="H55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="14"/>
-    </row>
-    <row r="56" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="13"/>
+    </row>
+    <row r="56" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>5401</v>
       </c>
@@ -3042,9 +3085,9 @@
       <c r="H56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I56" s="14"/>
-    </row>
-    <row r="57" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="13"/>
+    </row>
+    <row r="57" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>5402</v>
       </c>
@@ -3069,9 +3112,9 @@
       <c r="H57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I57" s="14"/>
-    </row>
-    <row r="58" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="13"/>
+    </row>
+    <row r="58" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>5403</v>
       </c>
@@ -3096,9 +3139,9 @@
       <c r="H58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I58" s="14"/>
-    </row>
-    <row r="59" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="13"/>
+    </row>
+    <row r="59" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>5404</v>
       </c>
@@ -3123,9 +3166,9 @@
       <c r="H59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I59" s="14"/>
-    </row>
-    <row r="60" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="13"/>
+    </row>
+    <row r="60" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>5405</v>
       </c>
@@ -3150,9 +3193,9 @@
       <c r="H60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I60" s="14"/>
-    </row>
-    <row r="61" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="13"/>
+    </row>
+    <row r="61" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>5501</v>
       </c>
@@ -3177,9 +3220,9 @@
       <c r="H61" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I61" s="14"/>
-    </row>
-    <row r="62" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="13"/>
+    </row>
+    <row r="62" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>5502</v>
       </c>
@@ -3204,9 +3247,9 @@
       <c r="H62" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I62" s="14"/>
-    </row>
-    <row r="63" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="13"/>
+    </row>
+    <row r="63" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>5503</v>
       </c>
@@ -3231,9 +3274,9 @@
       <c r="H63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I63" s="14"/>
-    </row>
-    <row r="64" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="13"/>
+    </row>
+    <row r="64" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>5504</v>
       </c>
@@ -3258,9 +3301,9 @@
       <c r="H64" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I64" s="14"/>
-    </row>
-    <row r="65" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="13"/>
+    </row>
+    <row r="65" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>5506</v>
       </c>
@@ -3285,9 +3328,9 @@
       <c r="H65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I65" s="14"/>
-    </row>
-    <row r="66" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="13"/>
+    </row>
+    <row r="66" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>5601</v>
       </c>
@@ -3312,9 +3355,9 @@
       <c r="H66" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I66" s="14"/>
-    </row>
-    <row r="67" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="13"/>
+    </row>
+    <row r="67" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>5602</v>
       </c>
@@ -3339,9 +3382,9 @@
       <c r="H67" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I67" s="14"/>
-    </row>
-    <row r="68" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="13"/>
+    </row>
+    <row r="68" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>5603</v>
       </c>
@@ -3366,9 +3409,9 @@
       <c r="H68" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I68" s="14"/>
-    </row>
-    <row r="69" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="13"/>
+    </row>
+    <row r="69" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>5604</v>
       </c>
@@ -3393,9 +3436,9 @@
       <c r="H69" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I69" s="14"/>
-    </row>
-    <row r="70" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="13"/>
+    </row>
+    <row r="70" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>5605</v>
       </c>
@@ -3420,9 +3463,9 @@
       <c r="H70" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I70" s="14"/>
-    </row>
-    <row r="71" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="13"/>
+    </row>
+    <row r="71" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>5606</v>
       </c>
@@ -3447,9 +3490,9 @@
       <c r="H71" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I71" s="14"/>
-    </row>
-    <row r="72" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="13"/>
+    </row>
+    <row r="72" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>5701</v>
       </c>
@@ -3474,9 +3517,9 @@
       <c r="H72" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I72" s="14"/>
-    </row>
-    <row r="73" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I72" s="13"/>
+    </row>
+    <row r="73" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>5702</v>
       </c>
@@ -3501,9 +3544,9 @@
       <c r="H73" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I73" s="14"/>
-    </row>
-    <row r="74" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I73" s="13"/>
+    </row>
+    <row r="74" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>5703</v>
       </c>
@@ -3528,9 +3571,9 @@
       <c r="H74" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I74" s="14"/>
-    </row>
-    <row r="75" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I74" s="13"/>
+    </row>
+    <row r="75" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>5704</v>
       </c>
@@ -3555,9 +3598,9 @@
       <c r="H75" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I75" s="14"/>
-    </row>
-    <row r="76" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="13"/>
+    </row>
+    <row r="76" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>5705</v>
       </c>
@@ -3582,9 +3625,9 @@
       <c r="H76" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I76" s="14"/>
-    </row>
-    <row r="77" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="13"/>
+    </row>
+    <row r="77" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>5706</v>
       </c>
@@ -3609,9 +3652,9 @@
       <c r="H77" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I77" s="14"/>
-    </row>
-    <row r="78" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="13"/>
+    </row>
+    <row r="78" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>5801</v>
       </c>
@@ -3636,9 +3679,9 @@
       <c r="H78" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I78" s="14"/>
-    </row>
-    <row r="79" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I78" s="13"/>
+    </row>
+    <row r="79" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>5802</v>
       </c>
@@ -3663,9 +3706,9 @@
       <c r="H79" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I79" s="14"/>
-    </row>
-    <row r="80" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I79" s="13"/>
+    </row>
+    <row r="80" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>5803</v>
       </c>
@@ -3690,9 +3733,9 @@
       <c r="H80" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I80" s="14"/>
-    </row>
-    <row r="81" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I80" s="13"/>
+    </row>
+    <row r="81" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>5804</v>
       </c>
@@ -3717,9 +3760,9 @@
       <c r="H81" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I81" s="14"/>
-    </row>
-    <row r="82" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I81" s="13"/>
+    </row>
+    <row r="82" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>6101</v>
       </c>
@@ -3744,9 +3787,9 @@
       <c r="H82" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I82" s="14"/>
-    </row>
-    <row r="83" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I82" s="13"/>
+    </row>
+    <row r="83" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>6102</v>
       </c>
@@ -3771,9 +3814,9 @@
       <c r="H83" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I83" s="14"/>
-    </row>
-    <row r="84" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I83" s="13"/>
+    </row>
+    <row r="84" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>6103</v>
       </c>
@@ -3798,9 +3841,9 @@
       <c r="H84" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I84" s="14"/>
-    </row>
-    <row r="85" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I84" s="13"/>
+    </row>
+    <row r="85" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>6104</v>
       </c>
@@ -3825,9 +3868,9 @@
       <c r="H85" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I85" s="14"/>
-    </row>
-    <row r="86" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I85" s="13"/>
+    </row>
+    <row r="86" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>6105</v>
       </c>
@@ -3852,9 +3895,9 @@
       <c r="H86" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I86" s="14"/>
-    </row>
-    <row r="87" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I86" s="13"/>
+    </row>
+    <row r="87" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>6106</v>
       </c>
@@ -3879,9 +3922,9 @@
       <c r="H87" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I87" s="14"/>
-    </row>
-    <row r="88" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I87" s="13"/>
+    </row>
+    <row r="88" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>6107</v>
       </c>
@@ -3906,9 +3949,9 @@
       <c r="H88" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I88" s="14"/>
-    </row>
-    <row r="89" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I88" s="13"/>
+    </row>
+    <row r="89" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>6108</v>
       </c>
@@ -3933,9 +3976,9 @@
       <c r="H89" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I89" s="14"/>
-    </row>
-    <row r="90" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I89" s="13"/>
+    </row>
+    <row r="90" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>6109</v>
       </c>
@@ -3960,9 +4003,9 @@
       <c r="H90" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I90" s="14"/>
-    </row>
-    <row r="91" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I90" s="13"/>
+    </row>
+    <row r="91" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>6110</v>
       </c>
@@ -3987,9 +4030,9 @@
       <c r="H91" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I91" s="14"/>
-    </row>
-    <row r="92" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I91" s="13"/>
+    </row>
+    <row r="92" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>6111</v>
       </c>
@@ -4014,9 +4057,9 @@
       <c r="H92" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I92" s="14"/>
-    </row>
-    <row r="93" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I92" s="13"/>
+    </row>
+    <row r="93" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>6112</v>
       </c>
@@ -4041,9 +4084,9 @@
       <c r="H93" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I93" s="14"/>
-    </row>
-    <row r="94" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I93" s="13"/>
+    </row>
+    <row r="94" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>6113</v>
       </c>
@@ -4068,9 +4111,9 @@
       <c r="H94" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I94" s="14"/>
-    </row>
-    <row r="95" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I94" s="13"/>
+    </row>
+    <row r="95" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>6114</v>
       </c>
@@ -4095,9 +4138,9 @@
       <c r="H95" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I95" s="14"/>
-    </row>
-    <row r="96" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I95" s="13"/>
+    </row>
+    <row r="96" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>6115</v>
       </c>
@@ -4122,9 +4165,9 @@
       <c r="H96" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I96" s="14"/>
-    </row>
-    <row r="97" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I96" s="13"/>
+    </row>
+    <row r="97" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>6116</v>
       </c>
@@ -4149,9 +4192,9 @@
       <c r="H97" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I97" s="14"/>
-    </row>
-    <row r="98" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I97" s="13"/>
+    </row>
+    <row r="98" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>6117</v>
       </c>
@@ -4176,9 +4219,9 @@
       <c r="H98" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I98" s="14"/>
-    </row>
-    <row r="99" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I98" s="13"/>
+    </row>
+    <row r="99" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>6201</v>
       </c>
@@ -4203,9 +4246,9 @@
       <c r="H99" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I99" s="14"/>
-    </row>
-    <row r="100" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I99" s="13"/>
+    </row>
+    <row r="100" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>6202</v>
       </c>
@@ -4230,9 +4273,9 @@
       <c r="H100" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I100" s="14"/>
-    </row>
-    <row r="101" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I100" s="13"/>
+    </row>
+    <row r="101" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>6203</v>
       </c>
@@ -4257,9 +4300,9 @@
       <c r="H101" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I101" s="14"/>
-    </row>
-    <row r="102" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I101" s="13"/>
+    </row>
+    <row r="102" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>6204</v>
       </c>
@@ -4284,9 +4327,9 @@
       <c r="H102" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I102" s="14"/>
-    </row>
-    <row r="103" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I102" s="13"/>
+    </row>
+    <row r="103" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>6205</v>
       </c>
@@ -4311,9 +4354,9 @@
       <c r="H103" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I103" s="14"/>
-    </row>
-    <row r="104" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I103" s="13"/>
+    </row>
+    <row r="104" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>6206</v>
       </c>
@@ -4338,9 +4381,9 @@
       <c r="H104" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I104" s="14"/>
-    </row>
-    <row r="105" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I104" s="13"/>
+    </row>
+    <row r="105" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>6301</v>
       </c>
@@ -4365,9 +4408,9 @@
       <c r="H105" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I105" s="14"/>
-    </row>
-    <row r="106" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I105" s="13"/>
+    </row>
+    <row r="106" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>6302</v>
       </c>
@@ -4392,9 +4435,9 @@
       <c r="H106" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I106" s="14"/>
-    </row>
-    <row r="107" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I106" s="13"/>
+    </row>
+    <row r="107" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>6303</v>
       </c>
@@ -4419,9 +4462,9 @@
       <c r="H107" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I107" s="14"/>
-    </row>
-    <row r="108" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I107" s="13"/>
+    </row>
+    <row r="108" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>6304</v>
       </c>
@@ -4446,9 +4489,9 @@
       <c r="H108" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I108" s="14"/>
-    </row>
-    <row r="109" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I108" s="13"/>
+    </row>
+    <row r="109" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>6305</v>
       </c>
@@ -4473,9 +4516,9 @@
       <c r="H109" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I109" s="14"/>
-    </row>
-    <row r="110" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I109" s="13"/>
+    </row>
+    <row r="110" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>6306</v>
       </c>
@@ -4500,9 +4543,9 @@
       <c r="H110" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I110" s="14"/>
-    </row>
-    <row r="111" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I110" s="13"/>
+    </row>
+    <row r="111" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>6307</v>
       </c>
@@ -4527,9 +4570,9 @@
       <c r="H111" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I111" s="14"/>
-    </row>
-    <row r="112" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I111" s="13"/>
+    </row>
+    <row r="112" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>6308</v>
       </c>
@@ -4554,9 +4597,9 @@
       <c r="H112" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I112" s="14"/>
-    </row>
-    <row r="113" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I112" s="13"/>
+    </row>
+    <row r="113" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>6309</v>
       </c>
@@ -4581,9 +4624,9 @@
       <c r="H113" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I113" s="14"/>
-    </row>
-    <row r="114" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I113" s="13"/>
+    </row>
+    <row r="114" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>6310</v>
       </c>
@@ -4608,9 +4651,9 @@
       <c r="H114" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I114" s="14"/>
-    </row>
-    <row r="115" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I114" s="13"/>
+    </row>
+    <row r="115" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>7101</v>
       </c>
@@ -4635,9 +4678,9 @@
       <c r="H115" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I115" s="14"/>
-    </row>
-    <row r="116" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I115" s="13"/>
+    </row>
+    <row r="116" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>7102</v>
       </c>
@@ -4662,9 +4705,9 @@
       <c r="H116" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I116" s="14"/>
-    </row>
-    <row r="117" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I116" s="13"/>
+    </row>
+    <row r="117" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>7103</v>
       </c>
@@ -4689,9 +4732,9 @@
       <c r="H117" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I117" s="14"/>
-    </row>
-    <row r="118" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I117" s="13"/>
+    </row>
+    <row r="118" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>7104</v>
       </c>
@@ -4716,9 +4759,9 @@
       <c r="H118" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I118" s="14"/>
-    </row>
-    <row r="119" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I118" s="13"/>
+    </row>
+    <row r="119" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>7105</v>
       </c>
@@ -4743,9 +4786,9 @@
       <c r="H119" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I119" s="14"/>
-    </row>
-    <row r="120" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I119" s="13"/>
+    </row>
+    <row r="120" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>7106</v>
       </c>
@@ -4770,9 +4813,9 @@
       <c r="H120" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I120" s="14"/>
-    </row>
-    <row r="121" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I120" s="13"/>
+    </row>
+    <row r="121" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>7107</v>
       </c>
@@ -4797,9 +4840,9 @@
       <c r="H121" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I121" s="14"/>
-    </row>
-    <row r="122" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I121" s="13"/>
+    </row>
+    <row r="122" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>7108</v>
       </c>
@@ -4824,9 +4867,9 @@
       <c r="H122" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I122" s="14"/>
-    </row>
-    <row r="123" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I122" s="13"/>
+    </row>
+    <row r="123" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>7109</v>
       </c>
@@ -4851,9 +4894,9 @@
       <c r="H123" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I123" s="14"/>
-    </row>
-    <row r="124" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I123" s="13"/>
+    </row>
+    <row r="124" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>7110</v>
       </c>
@@ -4878,9 +4921,9 @@
       <c r="H124" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I124" s="14"/>
-    </row>
-    <row r="125" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I124" s="13"/>
+    </row>
+    <row r="125" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>7201</v>
       </c>
@@ -4905,9 +4948,9 @@
       <c r="H125" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I125" s="14"/>
-    </row>
-    <row r="126" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I125" s="13"/>
+    </row>
+    <row r="126" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>7202</v>
       </c>
@@ -4932,9 +4975,9 @@
       <c r="H126" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I126" s="14"/>
-    </row>
-    <row r="127" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I126" s="13"/>
+    </row>
+    <row r="127" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>7203</v>
       </c>
@@ -4959,9 +5002,9 @@
       <c r="H127" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I127" s="14"/>
-    </row>
-    <row r="128" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I127" s="13"/>
+    </row>
+    <row r="128" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>7301</v>
       </c>
@@ -4986,9 +5029,9 @@
       <c r="H128" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I128" s="14"/>
-    </row>
-    <row r="129" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I128" s="13"/>
+    </row>
+    <row r="129" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>7302</v>
       </c>
@@ -5013,9 +5056,9 @@
       <c r="H129" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I129" s="14"/>
-    </row>
-    <row r="130" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I129" s="13"/>
+    </row>
+    <row r="130" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>7303</v>
       </c>
@@ -5040,9 +5083,9 @@
       <c r="H130" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I130" s="14"/>
-    </row>
-    <row r="131" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I130" s="13"/>
+    </row>
+    <row r="131" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>7304</v>
       </c>
@@ -5067,9 +5110,9 @@
       <c r="H131" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I131" s="14"/>
-    </row>
-    <row r="132" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I131" s="13"/>
+    </row>
+    <row r="132" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>7305</v>
       </c>
@@ -5094,9 +5137,9 @@
       <c r="H132" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I132" s="14"/>
-    </row>
-    <row r="133" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I132" s="13"/>
+    </row>
+    <row r="133" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>7306</v>
       </c>
@@ -5121,9 +5164,9 @@
       <c r="H133" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I133" s="14"/>
-    </row>
-    <row r="134" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I133" s="13"/>
+    </row>
+    <row r="134" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>7307</v>
       </c>
@@ -5148,9 +5191,9 @@
       <c r="H134" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I134" s="14"/>
-    </row>
-    <row r="135" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I134" s="13"/>
+    </row>
+    <row r="135" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>7308</v>
       </c>
@@ -5175,9 +5218,9 @@
       <c r="H135" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I135" s="14"/>
-    </row>
-    <row r="136" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I135" s="13"/>
+    </row>
+    <row r="136" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>7309</v>
       </c>
@@ -5202,9 +5245,9 @@
       <c r="H136" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I136" s="14"/>
-    </row>
-    <row r="137" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I136" s="13"/>
+    </row>
+    <row r="137" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>7401</v>
       </c>
@@ -5229,9 +5272,9 @@
       <c r="H137" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I137" s="14"/>
-    </row>
-    <row r="138" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I137" s="13"/>
+    </row>
+    <row r="138" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>7402</v>
       </c>
@@ -5256,9 +5299,9 @@
       <c r="H138" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I138" s="14"/>
-    </row>
-    <row r="139" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I138" s="13"/>
+    </row>
+    <row r="139" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>7403</v>
       </c>
@@ -5283,9 +5326,9 @@
       <c r="H139" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I139" s="14"/>
-    </row>
-    <row r="140" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I139" s="13"/>
+    </row>
+    <row r="140" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>7404</v>
       </c>
@@ -5310,9 +5353,9 @@
       <c r="H140" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I140" s="14"/>
-    </row>
-    <row r="141" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I140" s="13"/>
+    </row>
+    <row r="141" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>7405</v>
       </c>
@@ -5337,9 +5380,9 @@
       <c r="H141" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I141" s="14"/>
-    </row>
-    <row r="142" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I141" s="13"/>
+    </row>
+    <row r="142" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>7406</v>
       </c>
@@ -5364,9 +5407,9 @@
       <c r="H142" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I142" s="14"/>
-    </row>
-    <row r="143" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I142" s="13"/>
+    </row>
+    <row r="143" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>7407</v>
       </c>
@@ -5391,9 +5434,9 @@
       <c r="H143" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I143" s="14"/>
-    </row>
-    <row r="144" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I143" s="13"/>
+    </row>
+    <row r="144" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>7408</v>
       </c>
@@ -5418,9 +5461,9 @@
       <c r="H144" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I144" s="14"/>
-    </row>
-    <row r="145" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I144" s="13"/>
+    </row>
+    <row r="145" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>8101</v>
       </c>
@@ -5445,9 +5488,9 @@
       <c r="H145" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I145" s="14"/>
-    </row>
-    <row r="146" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I145" s="13"/>
+    </row>
+    <row r="146" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>8102</v>
       </c>
@@ -5472,9 +5515,9 @@
       <c r="H146" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I146" s="14"/>
-    </row>
-    <row r="147" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I146" s="13"/>
+    </row>
+    <row r="147" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>8103</v>
       </c>
@@ -5499,9 +5542,9 @@
       <c r="H147" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I147" s="14"/>
-    </row>
-    <row r="148" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I147" s="13"/>
+    </row>
+    <row r="148" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>8104</v>
       </c>
@@ -5526,9 +5569,9 @@
       <c r="H148" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I148" s="14"/>
-    </row>
-    <row r="149" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I148" s="13"/>
+    </row>
+    <row r="149" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>8105</v>
       </c>
@@ -5553,9 +5596,9 @@
       <c r="H149" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I149" s="14"/>
-    </row>
-    <row r="150" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I149" s="13"/>
+    </row>
+    <row r="150" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>8106</v>
       </c>
@@ -5580,9 +5623,9 @@
       <c r="H150" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I150" s="14"/>
-    </row>
-    <row r="151" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I150" s="13"/>
+    </row>
+    <row r="151" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>8107</v>
       </c>
@@ -5607,9 +5650,9 @@
       <c r="H151" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I151" s="14"/>
-    </row>
-    <row r="152" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I151" s="13"/>
+    </row>
+    <row r="152" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>8108</v>
       </c>
@@ -5634,9 +5677,9 @@
       <c r="H152" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I152" s="14"/>
-    </row>
-    <row r="153" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I152" s="13"/>
+    </row>
+    <row r="153" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>8109</v>
       </c>
@@ -5661,9 +5704,9 @@
       <c r="H153" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I153" s="14"/>
-    </row>
-    <row r="154" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I153" s="13"/>
+    </row>
+    <row r="154" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>8110</v>
       </c>
@@ -5688,9 +5731,9 @@
       <c r="H154" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I154" s="14"/>
-    </row>
-    <row r="155" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I154" s="13"/>
+    </row>
+    <row r="155" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>8111</v>
       </c>
@@ -5715,9 +5758,9 @@
       <c r="H155" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I155" s="14"/>
-    </row>
-    <row r="156" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I155" s="13"/>
+    </row>
+    <row r="156" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>8112</v>
       </c>
@@ -5742,9 +5785,9 @@
       <c r="H156" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I156" s="14"/>
-    </row>
-    <row r="157" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I156" s="13"/>
+    </row>
+    <row r="157" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>8201</v>
       </c>
@@ -5769,9 +5812,9 @@
       <c r="H157" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I157" s="14"/>
-    </row>
-    <row r="158" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I157" s="13"/>
+    </row>
+    <row r="158" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>8202</v>
       </c>
@@ -5796,9 +5839,9 @@
       <c r="H158" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I158" s="14"/>
-    </row>
-    <row r="159" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I158" s="13"/>
+    </row>
+    <row r="159" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>8203</v>
       </c>
@@ -5823,9 +5866,9 @@
       <c r="H159" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I159" s="14"/>
-    </row>
-    <row r="160" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I159" s="13"/>
+    </row>
+    <row r="160" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>8204</v>
       </c>
@@ -5850,9 +5893,9 @@
       <c r="H160" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I160" s="14"/>
-    </row>
-    <row r="161" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I160" s="13"/>
+    </row>
+    <row r="161" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>8205</v>
       </c>
@@ -5877,9 +5920,9 @@
       <c r="H161" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I161" s="14"/>
-    </row>
-    <row r="162" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I161" s="13"/>
+    </row>
+    <row r="162" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <v>8206</v>
       </c>
@@ -5904,9 +5947,9 @@
       <c r="H162" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I162" s="14"/>
-    </row>
-    <row r="163" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I162" s="13"/>
+    </row>
+    <row r="163" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>8207</v>
       </c>
@@ -5931,9 +5974,9 @@
       <c r="H163" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I163" s="14"/>
-    </row>
-    <row r="164" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I163" s="13"/>
+    </row>
+    <row r="164" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>8301</v>
       </c>
@@ -5958,9 +6001,9 @@
       <c r="H164" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I164" s="14"/>
-    </row>
-    <row r="165" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I164" s="13"/>
+    </row>
+    <row r="165" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <v>8302</v>
       </c>
@@ -5985,9 +6028,9 @@
       <c r="H165" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I165" s="14"/>
-    </row>
-    <row r="166" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I165" s="13"/>
+    </row>
+    <row r="166" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <v>8303</v>
       </c>
@@ -6012,9 +6055,9 @@
       <c r="H166" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I166" s="14"/>
-    </row>
-    <row r="167" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I166" s="13"/>
+    </row>
+    <row r="167" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>8304</v>
       </c>
@@ -6039,9 +6082,9 @@
       <c r="H167" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I167" s="14"/>
-    </row>
-    <row r="168" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I167" s="13"/>
+    </row>
+    <row r="168" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>8305</v>
       </c>
@@ -6066,9 +6109,9 @@
       <c r="H168" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I168" s="14"/>
-    </row>
-    <row r="169" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I168" s="13"/>
+    </row>
+    <row r="169" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
         <v>8306</v>
       </c>
@@ -6093,9 +6136,9 @@
       <c r="H169" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I169" s="14"/>
-    </row>
-    <row r="170" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I169" s="13"/>
+    </row>
+    <row r="170" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>8307</v>
       </c>
@@ -6120,9 +6163,9 @@
       <c r="H170" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I170" s="14"/>
-    </row>
-    <row r="171" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I170" s="13"/>
+    </row>
+    <row r="171" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>8308</v>
       </c>
@@ -6147,9 +6190,9 @@
       <c r="H171" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I171" s="14"/>
-    </row>
-    <row r="172" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I171" s="13"/>
+    </row>
+    <row r="172" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6">
         <v>8309</v>
       </c>
@@ -6174,9 +6217,9 @@
       <c r="H172" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I172" s="14"/>
-    </row>
-    <row r="173" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I172" s="13"/>
+    </row>
+    <row r="173" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6">
         <v>8310</v>
       </c>
@@ -6201,9 +6244,9 @@
       <c r="H173" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I173" s="14"/>
-    </row>
-    <row r="174" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I173" s="13"/>
+    </row>
+    <row r="174" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6">
         <v>8311</v>
       </c>
@@ -6228,9 +6271,9 @@
       <c r="H174" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I174" s="14"/>
-    </row>
-    <row r="175" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I174" s="13"/>
+    </row>
+    <row r="175" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6">
         <v>8312</v>
       </c>
@@ -6255,9 +6298,9 @@
       <c r="H175" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I175" s="14"/>
-    </row>
-    <row r="176" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I175" s="13"/>
+    </row>
+    <row r="176" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6">
         <v>8313</v>
       </c>
@@ -6282,9 +6325,9 @@
       <c r="H176" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I176" s="14"/>
-    </row>
-    <row r="177" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I176" s="13"/>
+    </row>
+    <row r="177" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6">
         <v>8314</v>
       </c>
@@ -6309,9 +6352,9 @@
       <c r="H177" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I177" s="14"/>
-    </row>
-    <row r="178" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I177" s="13"/>
+    </row>
+    <row r="178" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6">
         <v>8401</v>
       </c>
@@ -6336,9 +6379,9 @@
       <c r="H178" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I178" s="14"/>
-    </row>
-    <row r="179" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I178" s="13"/>
+    </row>
+    <row r="179" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6">
         <v>8402</v>
       </c>
@@ -6363,9 +6406,9 @@
       <c r="H179" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I179" s="14"/>
-    </row>
-    <row r="180" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I179" s="13"/>
+    </row>
+    <row r="180" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6">
         <v>8403</v>
       </c>
@@ -6390,9 +6433,9 @@
       <c r="H180" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I180" s="14"/>
-    </row>
-    <row r="181" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I180" s="13"/>
+    </row>
+    <row r="181" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6">
         <v>8404</v>
       </c>
@@ -6417,9 +6460,9 @@
       <c r="H181" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I181" s="14"/>
-    </row>
-    <row r="182" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I181" s="13"/>
+    </row>
+    <row r="182" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6">
         <v>8405</v>
       </c>
@@ -6444,9 +6487,9 @@
       <c r="H182" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I182" s="14"/>
-    </row>
-    <row r="183" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I182" s="13"/>
+    </row>
+    <row r="183" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6">
         <v>8406</v>
       </c>
@@ -6471,9 +6514,9 @@
       <c r="H183" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I183" s="14"/>
-    </row>
-    <row r="184" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I183" s="13"/>
+    </row>
+    <row r="184" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6">
         <v>8407</v>
       </c>
@@ -6498,9 +6541,9 @@
       <c r="H184" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I184" s="14"/>
-    </row>
-    <row r="185" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I184" s="13"/>
+    </row>
+    <row r="185" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6">
         <v>8408</v>
       </c>
@@ -6525,9 +6568,9 @@
       <c r="H185" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I185" s="14"/>
-    </row>
-    <row r="186" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I185" s="13"/>
+    </row>
+    <row r="186" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6">
         <v>8409</v>
       </c>
@@ -6552,9 +6595,9 @@
       <c r="H186" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I186" s="14"/>
-    </row>
-    <row r="187" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I186" s="13"/>
+    </row>
+    <row r="187" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6">
         <v>8410</v>
       </c>
@@ -6579,9 +6622,9 @@
       <c r="H187" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I187" s="14"/>
-    </row>
-    <row r="188" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I187" s="13"/>
+    </row>
+    <row r="188" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6">
         <v>8411</v>
       </c>
@@ -6606,9 +6649,9 @@
       <c r="H188" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I188" s="14"/>
-    </row>
-    <row r="189" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I188" s="13"/>
+    </row>
+    <row r="189" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6">
         <v>8412</v>
       </c>
@@ -6633,9 +6676,9 @@
       <c r="H189" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I189" s="14"/>
-    </row>
-    <row r="190" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I189" s="13"/>
+    </row>
+    <row r="190" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6">
         <v>8413</v>
       </c>
@@ -6660,9 +6703,9 @@
       <c r="H190" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I190" s="14"/>
-    </row>
-    <row r="191" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I190" s="13"/>
+    </row>
+    <row r="191" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6">
         <v>8414</v>
       </c>
@@ -6687,9 +6730,9 @@
       <c r="H191" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I191" s="14"/>
-    </row>
-    <row r="192" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I191" s="13"/>
+    </row>
+    <row r="192" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6">
         <v>8415</v>
       </c>
@@ -6714,9 +6757,9 @@
       <c r="H192" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I192" s="14"/>
-    </row>
-    <row r="193" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I192" s="13"/>
+    </row>
+    <row r="193" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6">
         <v>8416</v>
       </c>
@@ -6741,9 +6784,9 @@
       <c r="H193" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I193" s="14"/>
-    </row>
-    <row r="194" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I193" s="13"/>
+    </row>
+    <row r="194" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6">
         <v>8417</v>
       </c>
@@ -6768,9 +6811,9 @@
       <c r="H194" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I194" s="14"/>
-    </row>
-    <row r="195" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I194" s="13"/>
+    </row>
+    <row r="195" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6">
         <v>8418</v>
       </c>
@@ -6795,9 +6838,9 @@
       <c r="H195" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I195" s="14"/>
-    </row>
-    <row r="196" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I195" s="13"/>
+    </row>
+    <row r="196" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6">
         <v>8419</v>
       </c>
@@ -6822,9 +6865,9 @@
       <c r="H196" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I196" s="14"/>
-    </row>
-    <row r="197" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I196" s="13"/>
+    </row>
+    <row r="197" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6">
         <v>8420</v>
       </c>
@@ -6849,9 +6892,9 @@
       <c r="H197" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I197" s="14"/>
-    </row>
-    <row r="198" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I197" s="13"/>
+    </row>
+    <row r="198" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6">
         <v>8421</v>
       </c>
@@ -6876,9 +6919,9 @@
       <c r="H198" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I198" s="14"/>
-    </row>
-    <row r="199" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I198" s="13"/>
+    </row>
+    <row r="199" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6">
         <v>9101</v>
       </c>
@@ -6903,9 +6946,9 @@
       <c r="H199" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I199" s="14"/>
-    </row>
-    <row r="200" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I199" s="13"/>
+    </row>
+    <row r="200" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6">
         <v>9102</v>
       </c>
@@ -6930,9 +6973,9 @@
       <c r="H200" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I200" s="14"/>
-    </row>
-    <row r="201" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I200" s="13"/>
+    </row>
+    <row r="201" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6">
         <v>9103</v>
       </c>
@@ -6957,9 +7000,9 @@
       <c r="H201" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I201" s="14"/>
-    </row>
-    <row r="202" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I201" s="13"/>
+    </row>
+    <row r="202" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6">
         <v>9104</v>
       </c>
@@ -6984,9 +7027,9 @@
       <c r="H202" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I202" s="14"/>
-    </row>
-    <row r="203" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I202" s="13"/>
+    </row>
+    <row r="203" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6">
         <v>9105</v>
       </c>
@@ -7011,9 +7054,9 @@
       <c r="H203" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I203" s="14"/>
-    </row>
-    <row r="204" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I203" s="13"/>
+    </row>
+    <row r="204" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6">
         <v>9106</v>
       </c>
@@ -7038,9 +7081,9 @@
       <c r="H204" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I204" s="14"/>
-    </row>
-    <row r="205" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I204" s="13"/>
+    </row>
+    <row r="205" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6">
         <v>9107</v>
       </c>
@@ -7065,9 +7108,9 @@
       <c r="H205" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I205" s="14"/>
-    </row>
-    <row r="206" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I205" s="13"/>
+    </row>
+    <row r="206" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6">
         <v>9108</v>
       </c>
@@ -7092,9 +7135,9 @@
       <c r="H206" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I206" s="14"/>
-    </row>
-    <row r="207" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I206" s="13"/>
+    </row>
+    <row r="207" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6">
         <v>9109</v>
       </c>
@@ -7119,9 +7162,9 @@
       <c r="H207" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I207" s="14"/>
-    </row>
-    <row r="208" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I207" s="13"/>
+    </row>
+    <row r="208" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6">
         <v>9110</v>
       </c>
@@ -7146,9 +7189,9 @@
       <c r="H208" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I208" s="14"/>
-    </row>
-    <row r="209" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I208" s="13"/>
+    </row>
+    <row r="209" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6">
         <v>9111</v>
       </c>
@@ -7173,9 +7216,9 @@
       <c r="H209" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I209" s="14"/>
-    </row>
-    <row r="210" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I209" s="13"/>
+    </row>
+    <row r="210" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6">
         <v>9112</v>
       </c>
@@ -7200,9 +7243,9 @@
       <c r="H210" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I210" s="14"/>
-    </row>
-    <row r="211" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I210" s="13"/>
+    </row>
+    <row r="211" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6">
         <v>9113</v>
       </c>
@@ -7227,9 +7270,9 @@
       <c r="H211" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I211" s="14"/>
-    </row>
-    <row r="212" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I211" s="13"/>
+    </row>
+    <row r="212" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="6">
         <v>9114</v>
       </c>
@@ -7254,9 +7297,9 @@
       <c r="H212" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I212" s="14"/>
-    </row>
-    <row r="213" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I212" s="13"/>
+    </row>
+    <row r="213" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="6">
         <v>9115</v>
       </c>
@@ -7281,9 +7324,9 @@
       <c r="H213" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I213" s="14"/>
-    </row>
-    <row r="214" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I213" s="13"/>
+    </row>
+    <row r="214" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6">
         <v>9116</v>
       </c>
@@ -7308,9 +7351,9 @@
       <c r="H214" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I214" s="14"/>
-    </row>
-    <row r="215" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I214" s="13"/>
+    </row>
+    <row r="215" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6">
         <v>9117</v>
       </c>
@@ -7335,9 +7378,9 @@
       <c r="H215" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I215" s="14"/>
-    </row>
-    <row r="216" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I215" s="13"/>
+    </row>
+    <row r="216" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="6">
         <v>9118</v>
       </c>
@@ -7362,9 +7405,9 @@
       <c r="H216" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I216" s="14"/>
-    </row>
-    <row r="217" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I216" s="13"/>
+    </row>
+    <row r="217" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
         <v>9119</v>
       </c>
@@ -7389,9 +7432,9 @@
       <c r="H217" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I217" s="14"/>
-    </row>
-    <row r="218" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I217" s="13"/>
+    </row>
+    <row r="218" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6">
         <v>9120</v>
       </c>
@@ -7416,9 +7459,9 @@
       <c r="H218" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I218" s="14"/>
-    </row>
-    <row r="219" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I218" s="13"/>
+    </row>
+    <row r="219" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6">
         <v>9121</v>
       </c>
@@ -7443,9 +7486,9 @@
       <c r="H219" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I219" s="14"/>
-    </row>
-    <row r="220" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I219" s="13"/>
+    </row>
+    <row r="220" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="6">
         <v>9201</v>
       </c>
@@ -7470,9 +7513,9 @@
       <c r="H220" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I220" s="14"/>
-    </row>
-    <row r="221" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I220" s="13"/>
+    </row>
+    <row r="221" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="6">
         <v>9202</v>
       </c>
@@ -7497,9 +7540,9 @@
       <c r="H221" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I221" s="14"/>
-    </row>
-    <row r="222" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I221" s="13"/>
+    </row>
+    <row r="222" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="6">
         <v>9203</v>
       </c>
@@ -7524,9 +7567,9 @@
       <c r="H222" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I222" s="14"/>
-    </row>
-    <row r="223" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I222" s="13"/>
+    </row>
+    <row r="223" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="6">
         <v>9204</v>
       </c>
@@ -7551,9 +7594,9 @@
       <c r="H223" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I223" s="14"/>
-    </row>
-    <row r="224" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I223" s="13"/>
+    </row>
+    <row r="224" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="6">
         <v>9205</v>
       </c>
@@ -7578,9 +7621,9 @@
       <c r="H224" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I224" s="14"/>
-    </row>
-    <row r="225" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I224" s="13"/>
+    </row>
+    <row r="225" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="6">
         <v>9206</v>
       </c>
@@ -7605,9 +7648,9 @@
       <c r="H225" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I225" s="14"/>
-    </row>
-    <row r="226" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I225" s="13"/>
+    </row>
+    <row r="226" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6">
         <v>9207</v>
       </c>
@@ -7632,9 +7675,9 @@
       <c r="H226" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I226" s="14"/>
-    </row>
-    <row r="227" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I226" s="13"/>
+    </row>
+    <row r="227" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6">
         <v>9208</v>
       </c>
@@ -7659,9 +7702,9 @@
       <c r="H227" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I227" s="14"/>
-    </row>
-    <row r="228" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I227" s="13"/>
+    </row>
+    <row r="228" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="6">
         <v>9209</v>
       </c>
@@ -7686,9 +7729,9 @@
       <c r="H228" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I228" s="14"/>
-    </row>
-    <row r="229" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I228" s="13"/>
+    </row>
+    <row r="229" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="6">
         <v>9210</v>
       </c>
@@ -7713,9 +7756,9 @@
       <c r="H229" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I229" s="14"/>
-    </row>
-    <row r="230" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I229" s="13"/>
+    </row>
+    <row r="230" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="6">
         <v>9211</v>
       </c>
@@ -7740,9 +7783,9 @@
       <c r="H230" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I230" s="14"/>
-    </row>
-    <row r="231" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I230" s="13"/>
+    </row>
+    <row r="231" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="6">
         <v>10101</v>
       </c>
@@ -7767,9 +7810,9 @@
       <c r="H231" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I231" s="14"/>
-    </row>
-    <row r="232" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I231" s="13"/>
+    </row>
+    <row r="232" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="6">
         <v>10102</v>
       </c>
@@ -7794,9 +7837,9 @@
       <c r="H232" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I232" s="14"/>
-    </row>
-    <row r="233" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I232" s="13"/>
+    </row>
+    <row r="233" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6">
         <v>10103</v>
       </c>
@@ -7817,9 +7860,9 @@
       <c r="H233" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I233" s="14"/>
-    </row>
-    <row r="234" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I233" s="13"/>
+    </row>
+    <row r="234" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6">
         <v>10104</v>
       </c>
@@ -7844,9 +7887,9 @@
       <c r="H234" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I234" s="14"/>
-    </row>
-    <row r="235" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I234" s="13"/>
+    </row>
+    <row r="235" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6">
         <v>10105</v>
       </c>
@@ -7871,9 +7914,9 @@
       <c r="H235" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I235" s="14"/>
-    </row>
-    <row r="236" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I235" s="13"/>
+    </row>
+    <row r="236" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="6">
         <v>10106</v>
       </c>
@@ -7898,9 +7941,9 @@
       <c r="H236" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I236" s="14"/>
-    </row>
-    <row r="237" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I236" s="13"/>
+    </row>
+    <row r="237" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
         <v>10107</v>
       </c>
@@ -7925,9 +7968,9 @@
       <c r="H237" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I237" s="14"/>
-    </row>
-    <row r="238" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I237" s="13"/>
+    </row>
+    <row r="238" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="6">
         <v>10108</v>
       </c>
@@ -7952,9 +7995,9 @@
       <c r="H238" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I238" s="14"/>
-    </row>
-    <row r="239" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I238" s="13"/>
+    </row>
+    <row r="239" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="6">
         <v>10109</v>
       </c>
@@ -7979,9 +8022,9 @@
       <c r="H239" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I239" s="14"/>
-    </row>
-    <row r="240" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I239" s="13"/>
+    </row>
+    <row r="240" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6">
         <v>10201</v>
       </c>
@@ -8006,9 +8049,9 @@
       <c r="H240" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I240" s="14"/>
-    </row>
-    <row r="241" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I240" s="13"/>
+    </row>
+    <row r="241" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
         <v>10202</v>
       </c>
@@ -8033,9 +8076,9 @@
       <c r="H241" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I241" s="14"/>
-    </row>
-    <row r="242" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I241" s="13"/>
+    </row>
+    <row r="242" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6">
         <v>10203</v>
       </c>
@@ -8060,9 +8103,9 @@
       <c r="H242" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I242" s="14"/>
-    </row>
-    <row r="243" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I242" s="13"/>
+    </row>
+    <row r="243" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6">
         <v>10204</v>
       </c>
@@ -8087,9 +8130,9 @@
       <c r="H243" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I243" s="14"/>
-    </row>
-    <row r="244" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I243" s="13"/>
+    </row>
+    <row r="244" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6">
         <v>10205</v>
       </c>
@@ -8114,9 +8157,9 @@
       <c r="H244" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I244" s="14"/>
-    </row>
-    <row r="245" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I244" s="13"/>
+    </row>
+    <row r="245" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="6">
         <v>10206</v>
       </c>
@@ -8141,9 +8184,9 @@
       <c r="H245" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I245" s="14"/>
-    </row>
-    <row r="246" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I245" s="13"/>
+    </row>
+    <row r="246" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="6">
         <v>10207</v>
       </c>
@@ -8168,9 +8211,9 @@
       <c r="H246" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I246" s="14"/>
-    </row>
-    <row r="247" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I246" s="13"/>
+    </row>
+    <row r="247" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6">
         <v>10208</v>
       </c>
@@ -8195,9 +8238,9 @@
       <c r="H247" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I247" s="14"/>
-    </row>
-    <row r="248" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I247" s="13"/>
+    </row>
+    <row r="248" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="6">
         <v>10209</v>
       </c>
@@ -8222,9 +8265,9 @@
       <c r="H248" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I248" s="14"/>
-    </row>
-    <row r="249" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I248" s="13"/>
+    </row>
+    <row r="249" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6">
         <v>10210</v>
       </c>
@@ -8249,9 +8292,9 @@
       <c r="H249" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I249" s="14"/>
-    </row>
-    <row r="250" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I249" s="13"/>
+    </row>
+    <row r="250" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="6">
         <v>10301</v>
       </c>
@@ -8276,9 +8319,9 @@
       <c r="H250" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I250" s="14"/>
-    </row>
-    <row r="251" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I250" s="13"/>
+    </row>
+    <row r="251" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="6">
         <v>10302</v>
       </c>
@@ -8303,9 +8346,9 @@
       <c r="H251" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I251" s="14"/>
-    </row>
-    <row r="252" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I251" s="13"/>
+    </row>
+    <row r="252" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6">
         <v>10303</v>
       </c>
@@ -8330,9 +8373,9 @@
       <c r="H252" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I252" s="14"/>
-    </row>
-    <row r="253" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I252" s="13"/>
+    </row>
+    <row r="253" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="6">
         <v>10304</v>
       </c>
@@ -8357,9 +8400,9 @@
       <c r="H253" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I253" s="14"/>
-    </row>
-    <row r="254" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I253" s="13"/>
+    </row>
+    <row r="254" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="6">
         <v>10305</v>
       </c>
@@ -8384,9 +8427,9 @@
       <c r="H254" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I254" s="14"/>
-    </row>
-    <row r="255" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I254" s="13"/>
+    </row>
+    <row r="255" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6">
         <v>10306</v>
       </c>
@@ -8411,9 +8454,9 @@
       <c r="H255" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I255" s="14"/>
-    </row>
-    <row r="256" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I255" s="13"/>
+    </row>
+    <row r="256" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="6">
         <v>10307</v>
       </c>
@@ -8438,9 +8481,9 @@
       <c r="H256" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I256" s="14"/>
-    </row>
-    <row r="257" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I256" s="13"/>
+    </row>
+    <row r="257" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="6">
         <v>10401</v>
       </c>
@@ -8461,9 +8504,9 @@
       <c r="H257" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I257" s="14"/>
-    </row>
-    <row r="258" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I257" s="13"/>
+    </row>
+    <row r="258" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="6">
         <v>10402</v>
       </c>
@@ -8484,9 +8527,9 @@
       <c r="H258" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I258" s="14"/>
-    </row>
-    <row r="259" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I258" s="13"/>
+    </row>
+    <row r="259" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="6">
         <v>10403</v>
       </c>
@@ -8507,9 +8550,9 @@
       <c r="H259" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I259" s="14"/>
-    </row>
-    <row r="260" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I259" s="13"/>
+    </row>
+    <row r="260" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="6">
         <v>10404</v>
       </c>
@@ -8530,9 +8573,9 @@
       <c r="H260" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I260" s="14"/>
-    </row>
-    <row r="261" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I260" s="13"/>
+    </row>
+    <row r="261" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="6">
         <v>11101</v>
       </c>
@@ -8557,9 +8600,9 @@
       <c r="H261" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I261" s="14"/>
-    </row>
-    <row r="262" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I261" s="13"/>
+    </row>
+    <row r="262" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="6">
         <v>11102</v>
       </c>
@@ -8580,9 +8623,9 @@
       <c r="H262" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I262" s="14"/>
-    </row>
-    <row r="263" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I262" s="13"/>
+    </row>
+    <row r="263" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="6">
         <v>11201</v>
       </c>
@@ -8607,9 +8650,9 @@
       <c r="H263" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I263" s="14"/>
-    </row>
-    <row r="264" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I263" s="13"/>
+    </row>
+    <row r="264" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="6">
         <v>11202</v>
       </c>
@@ -8634,9 +8677,9 @@
       <c r="H264" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I264" s="14"/>
-    </row>
-    <row r="265" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I264" s="13"/>
+    </row>
+    <row r="265" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="6">
         <v>11203</v>
       </c>
@@ -8657,9 +8700,9 @@
       <c r="H265" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I265" s="14"/>
-    </row>
-    <row r="266" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I265" s="13"/>
+    </row>
+    <row r="266" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6">
         <v>11301</v>
       </c>
@@ -8684,9 +8727,9 @@
       <c r="H266" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I266" s="14"/>
-    </row>
-    <row r="267" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I266" s="13"/>
+    </row>
+    <row r="267" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="6">
         <v>11302</v>
       </c>
@@ -8707,9 +8750,9 @@
       <c r="H267" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I267" s="14"/>
-    </row>
-    <row r="268" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I267" s="13"/>
+    </row>
+    <row r="268" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6">
         <v>11303</v>
       </c>
@@ -8730,9 +8773,9 @@
       <c r="H268" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I268" s="14"/>
-    </row>
-    <row r="269" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I268" s="13"/>
+    </row>
+    <row r="269" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6">
         <v>11401</v>
       </c>
@@ -8757,9 +8800,9 @@
       <c r="H269" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I269" s="14"/>
-    </row>
-    <row r="270" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I269" s="13"/>
+    </row>
+    <row r="270" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6">
         <v>11402</v>
       </c>
@@ -8784,9 +8827,9 @@
       <c r="H270" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I270" s="14"/>
-    </row>
-    <row r="271" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I270" s="13"/>
+    </row>
+    <row r="271" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6">
         <v>12101</v>
       </c>
@@ -8811,9 +8854,9 @@
       <c r="H271" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I271" s="14"/>
-    </row>
-    <row r="272" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I271" s="13"/>
+    </row>
+    <row r="272" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="6">
         <v>12102</v>
       </c>
@@ -8834,9 +8877,9 @@
       <c r="H272" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I272" s="14"/>
-    </row>
-    <row r="273" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I272" s="13"/>
+    </row>
+    <row r="273" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="6">
         <v>12103</v>
       </c>
@@ -8857,9 +8900,9 @@
       <c r="H273" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I273" s="14"/>
-    </row>
-    <row r="274" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I273" s="13"/>
+    </row>
+    <row r="274" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="6">
         <v>12104</v>
       </c>
@@ -8880,9 +8923,9 @@
       <c r="H274" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I274" s="14"/>
-    </row>
-    <row r="275" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I274" s="13"/>
+    </row>
+    <row r="275" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="6">
         <v>12201</v>
       </c>
@@ -8903,9 +8946,9 @@
       <c r="H275" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I275" s="14"/>
-    </row>
-    <row r="276" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I275" s="13"/>
+    </row>
+    <row r="276" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6">
         <v>12301</v>
       </c>
@@ -8930,9 +8973,9 @@
       <c r="H276" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I276" s="14"/>
-    </row>
-    <row r="277" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I276" s="13"/>
+    </row>
+    <row r="277" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6">
         <v>12302</v>
       </c>
@@ -8953,9 +8996,9 @@
       <c r="H277" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I277" s="14"/>
-    </row>
-    <row r="278" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I277" s="13"/>
+    </row>
+    <row r="278" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6">
         <v>12303</v>
       </c>
@@ -8976,9 +9019,9 @@
       <c r="H278" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I278" s="14"/>
-    </row>
-    <row r="279" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I278" s="13"/>
+    </row>
+    <row r="279" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6">
         <v>12401</v>
       </c>
@@ -9003,9 +9046,9 @@
       <c r="H279" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I279" s="14"/>
-    </row>
-    <row r="280" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I279" s="13"/>
+    </row>
+    <row r="280" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="6">
         <v>12402</v>
       </c>
@@ -9026,9 +9069,9 @@
       <c r="H280" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I280" s="14"/>
-    </row>
-    <row r="281" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I280" s="13"/>
+    </row>
+    <row r="281" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6">
         <v>13101</v>
       </c>
@@ -9053,9 +9096,9 @@
       <c r="H281" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I281" s="14"/>
-    </row>
-    <row r="282" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I281" s="13"/>
+    </row>
+    <row r="282" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6">
         <v>13102</v>
       </c>
@@ -9080,9 +9123,9 @@
       <c r="H282" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I282" s="14"/>
-    </row>
-    <row r="283" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I282" s="13"/>
+    </row>
+    <row r="283" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="6">
         <v>13103</v>
       </c>
@@ -9107,9 +9150,9 @@
       <c r="H283" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I283" s="14"/>
-    </row>
-    <row r="284" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I283" s="13"/>
+    </row>
+    <row r="284" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6">
         <v>13104</v>
       </c>
@@ -9134,9 +9177,9 @@
       <c r="H284" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I284" s="14"/>
-    </row>
-    <row r="285" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I284" s="13"/>
+    </row>
+    <row r="285" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="6">
         <v>13105</v>
       </c>
@@ -9161,9 +9204,9 @@
       <c r="H285" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I285" s="14"/>
-    </row>
-    <row r="286" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I285" s="13"/>
+    </row>
+    <row r="286" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="6">
         <v>13106</v>
       </c>
@@ -9188,9 +9231,9 @@
       <c r="H286" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I286" s="14"/>
-    </row>
-    <row r="287" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I286" s="13"/>
+    </row>
+    <row r="287" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="6">
         <v>13107</v>
       </c>
@@ -9215,9 +9258,9 @@
       <c r="H287" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I287" s="14"/>
-    </row>
-    <row r="288" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I287" s="13"/>
+    </row>
+    <row r="288" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="6">
         <v>13108</v>
       </c>
@@ -9242,9 +9285,9 @@
       <c r="H288" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I288" s="14"/>
-    </row>
-    <row r="289" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I288" s="13"/>
+    </row>
+    <row r="289" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="6">
         <v>13109</v>
       </c>
@@ -9269,9 +9312,9 @@
       <c r="H289" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I289" s="14"/>
-    </row>
-    <row r="290" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I289" s="13"/>
+    </row>
+    <row r="290" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6">
         <v>13110</v>
       </c>
@@ -9296,9 +9339,9 @@
       <c r="H290" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I290" s="14"/>
-    </row>
-    <row r="291" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I290" s="13"/>
+    </row>
+    <row r="291" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A291" s="6">
         <v>13111</v>
       </c>
@@ -9323,9 +9366,9 @@
       <c r="H291" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I291" s="14"/>
-    </row>
-    <row r="292" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I291" s="13"/>
+    </row>
+    <row r="292" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A292" s="6">
         <v>13112</v>
       </c>
@@ -9350,9 +9393,9 @@
       <c r="H292" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I292" s="14"/>
-    </row>
-    <row r="293" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I292" s="13"/>
+    </row>
+    <row r="293" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="6">
         <v>13113</v>
       </c>
@@ -9377,9 +9420,9 @@
       <c r="H293" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I293" s="14"/>
-    </row>
-    <row r="294" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I293" s="13"/>
+    </row>
+    <row r="294" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="6">
         <v>13114</v>
       </c>
@@ -9404,9 +9447,9 @@
       <c r="H294" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I294" s="14"/>
-    </row>
-    <row r="295" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I294" s="13"/>
+    </row>
+    <row r="295" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="6">
         <v>13115</v>
       </c>
@@ -9431,9 +9474,9 @@
       <c r="H295" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I295" s="14"/>
-    </row>
-    <row r="296" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I295" s="13"/>
+    </row>
+    <row r="296" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="6">
         <v>13116</v>
       </c>
@@ -9458,9 +9501,9 @@
       <c r="H296" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I296" s="14"/>
-    </row>
-    <row r="297" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I296" s="13"/>
+    </row>
+    <row r="297" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="6">
         <v>13117</v>
       </c>
@@ -9485,9 +9528,9 @@
       <c r="H297" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I297" s="14"/>
-    </row>
-    <row r="298" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I297" s="13"/>
+    </row>
+    <row r="298" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="6">
         <v>13118</v>
       </c>
@@ -9512,9 +9555,9 @@
       <c r="H298" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I298" s="14"/>
-    </row>
-    <row r="299" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I298" s="13"/>
+    </row>
+    <row r="299" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" s="6">
         <v>13119</v>
       </c>
@@ -9539,9 +9582,9 @@
       <c r="H299" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I299" s="14"/>
-    </row>
-    <row r="300" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I299" s="13"/>
+    </row>
+    <row r="300" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="6">
         <v>13120</v>
       </c>
@@ -9566,9 +9609,9 @@
       <c r="H300" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I300" s="14"/>
-    </row>
-    <row r="301" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I300" s="13"/>
+    </row>
+    <row r="301" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="6">
         <v>13121</v>
       </c>
@@ -9593,9 +9636,9 @@
       <c r="H301" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I301" s="14"/>
-    </row>
-    <row r="302" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I301" s="13"/>
+    </row>
+    <row r="302" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="6">
         <v>13122</v>
       </c>
@@ -9620,9 +9663,9 @@
       <c r="H302" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I302" s="14"/>
-    </row>
-    <row r="303" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I302" s="13"/>
+    </row>
+    <row r="303" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A303" s="6">
         <v>13123</v>
       </c>
@@ -9647,9 +9690,9 @@
       <c r="H303" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I303" s="14"/>
-    </row>
-    <row r="304" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I303" s="13"/>
+    </row>
+    <row r="304" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A304" s="6">
         <v>13124</v>
       </c>
@@ -9674,9 +9717,9 @@
       <c r="H304" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I304" s="14"/>
-    </row>
-    <row r="305" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I304" s="13"/>
+    </row>
+    <row r="305" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="6">
         <v>13125</v>
       </c>
@@ -9701,9 +9744,9 @@
       <c r="H305" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I305" s="14"/>
-    </row>
-    <row r="306" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I305" s="13"/>
+    </row>
+    <row r="306" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="6">
         <v>13126</v>
       </c>
@@ -9728,9 +9771,9 @@
       <c r="H306" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I306" s="14"/>
-    </row>
-    <row r="307" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I306" s="13"/>
+    </row>
+    <row r="307" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="6">
         <v>13127</v>
       </c>
@@ -9755,9 +9798,9 @@
       <c r="H307" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I307" s="14"/>
-    </row>
-    <row r="308" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I307" s="13"/>
+    </row>
+    <row r="308" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="6">
         <v>13128</v>
       </c>
@@ -9782,9 +9825,9 @@
       <c r="H308" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I308" s="14"/>
-    </row>
-    <row r="309" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I308" s="13"/>
+    </row>
+    <row r="309" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="6">
         <v>13129</v>
       </c>
@@ -9809,9 +9852,9 @@
       <c r="H309" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I309" s="14"/>
-    </row>
-    <row r="310" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I309" s="13"/>
+    </row>
+    <row r="310" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="6">
         <v>13130</v>
       </c>
@@ -9836,9 +9879,9 @@
       <c r="H310" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I310" s="14"/>
-    </row>
-    <row r="311" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I310" s="13"/>
+    </row>
+    <row r="311" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="6">
         <v>13131</v>
       </c>
@@ -9863,9 +9906,9 @@
       <c r="H311" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I311" s="14"/>
-    </row>
-    <row r="312" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I311" s="13"/>
+    </row>
+    <row r="312" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="6">
         <v>13132</v>
       </c>
@@ -9890,9 +9933,9 @@
       <c r="H312" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I312" s="14"/>
-    </row>
-    <row r="313" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I312" s="13"/>
+    </row>
+    <row r="313" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="6">
         <v>13201</v>
       </c>
@@ -9917,9 +9960,9 @@
       <c r="H313" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I313" s="14"/>
-    </row>
-    <row r="314" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I313" s="13"/>
+    </row>
+    <row r="314" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="6">
         <v>13202</v>
       </c>
@@ -9944,9 +9987,9 @@
       <c r="H314" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I314" s="14"/>
-    </row>
-    <row r="315" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I314" s="13"/>
+    </row>
+    <row r="315" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="6">
         <v>13203</v>
       </c>
@@ -9971,9 +10014,9 @@
       <c r="H315" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I315" s="14"/>
-    </row>
-    <row r="316" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I315" s="13"/>
+    </row>
+    <row r="316" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="6">
         <v>13301</v>
       </c>
@@ -9998,9 +10041,9 @@
       <c r="H316" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I316" s="14"/>
-    </row>
-    <row r="317" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I316" s="13"/>
+    </row>
+    <row r="317" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="6">
         <v>13302</v>
       </c>
@@ -10025,9 +10068,9 @@
       <c r="H317" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I317" s="14"/>
-    </row>
-    <row r="318" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I317" s="13"/>
+    </row>
+    <row r="318" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="6">
         <v>13303</v>
       </c>
@@ -10052,9 +10095,9 @@
       <c r="H318" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I318" s="14"/>
-    </row>
-    <row r="319" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I318" s="13"/>
+    </row>
+    <row r="319" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A319" s="6">
         <v>13401</v>
       </c>
@@ -10079,9 +10122,9 @@
       <c r="H319" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I319" s="14"/>
-    </row>
-    <row r="320" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I319" s="13"/>
+    </row>
+    <row r="320" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="6">
         <v>13402</v>
       </c>
@@ -10106,9 +10149,9 @@
       <c r="H320" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I320" s="14"/>
-    </row>
-    <row r="321" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I320" s="13"/>
+    </row>
+    <row r="321" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="6">
         <v>13403</v>
       </c>
@@ -10133,9 +10176,9 @@
       <c r="H321" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I321" s="14"/>
-    </row>
-    <row r="322" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I321" s="13"/>
+    </row>
+    <row r="322" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="6">
         <v>13404</v>
       </c>
@@ -10160,9 +10203,9 @@
       <c r="H322" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I322" s="14"/>
-    </row>
-    <row r="323" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I322" s="13"/>
+    </row>
+    <row r="323" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="6">
         <v>13501</v>
       </c>
@@ -10187,9 +10230,9 @@
       <c r="H323" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I323" s="14"/>
-    </row>
-    <row r="324" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I323" s="13"/>
+    </row>
+    <row r="324" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="6">
         <v>13502</v>
       </c>
@@ -10214,9 +10257,9 @@
       <c r="H324" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I324" s="14"/>
-    </row>
-    <row r="325" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I324" s="13"/>
+    </row>
+    <row r="325" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="6">
         <v>13503</v>
       </c>
@@ -10241,9 +10284,9 @@
       <c r="H325" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I325" s="14"/>
-    </row>
-    <row r="326" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I325" s="13"/>
+    </row>
+    <row r="326" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="6">
         <v>13504</v>
       </c>
@@ -10268,9 +10311,9 @@
       <c r="H326" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I326" s="14"/>
-    </row>
-    <row r="327" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I326" s="13"/>
+    </row>
+    <row r="327" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="6">
         <v>13505</v>
       </c>
@@ -10295,9 +10338,9 @@
       <c r="H327" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I327" s="14"/>
-    </row>
-    <row r="328" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I327" s="13"/>
+    </row>
+    <row r="328" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A328" s="6">
         <v>13601</v>
       </c>
@@ -10322,9 +10365,9 @@
       <c r="H328" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I328" s="14"/>
-    </row>
-    <row r="329" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I328" s="13"/>
+    </row>
+    <row r="329" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="6">
         <v>13602</v>
       </c>
@@ -10349,9 +10392,9 @@
       <c r="H329" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I329" s="14"/>
-    </row>
-    <row r="330" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I329" s="13"/>
+    </row>
+    <row r="330" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="6">
         <v>13603</v>
       </c>
@@ -10376,9 +10419,9 @@
       <c r="H330" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I330" s="14"/>
-    </row>
-    <row r="331" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I330" s="13"/>
+    </row>
+    <row r="331" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="6">
         <v>13604</v>
       </c>
@@ -10403,9 +10446,9 @@
       <c r="H331" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I331" s="14"/>
-    </row>
-    <row r="332" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I331" s="13"/>
+    </row>
+    <row r="332" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="6">
         <v>13605</v>
       </c>
@@ -10430,9 +10473,9 @@
       <c r="H332" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I332" s="14"/>
-    </row>
-    <row r="333" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I332" s="13"/>
+    </row>
+    <row r="333" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="6">
         <v>14101</v>
       </c>
@@ -10457,9 +10500,9 @@
       <c r="H333" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I333" s="14"/>
-    </row>
-    <row r="334" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I333" s="13"/>
+    </row>
+    <row r="334" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="6">
         <v>14102</v>
       </c>
@@ -10484,9 +10527,9 @@
       <c r="H334" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I334" s="14"/>
-    </row>
-    <row r="335" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I334" s="13"/>
+    </row>
+    <row r="335" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="6">
         <v>14103</v>
       </c>
@@ -10511,9 +10554,9 @@
       <c r="H335" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I335" s="14"/>
-    </row>
-    <row r="336" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I335" s="13"/>
+    </row>
+    <row r="336" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="6">
         <v>14104</v>
       </c>
@@ -10538,9 +10581,9 @@
       <c r="H336" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I336" s="14"/>
-    </row>
-    <row r="337" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I336" s="13"/>
+    </row>
+    <row r="337" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="6">
         <v>14105</v>
       </c>
@@ -10565,9 +10608,9 @@
       <c r="H337" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I337" s="14"/>
-    </row>
-    <row r="338" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I337" s="13"/>
+    </row>
+    <row r="338" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="6">
         <v>14106</v>
       </c>
@@ -10592,9 +10635,9 @@
       <c r="H338" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I338" s="14"/>
-    </row>
-    <row r="339" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I338" s="13"/>
+    </row>
+    <row r="339" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="6">
         <v>14107</v>
       </c>
@@ -10619,9 +10662,9 @@
       <c r="H339" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I339" s="14"/>
-    </row>
-    <row r="340" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I339" s="13"/>
+    </row>
+    <row r="340" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="6">
         <v>14108</v>
       </c>
@@ -10646,9 +10689,9 @@
       <c r="H340" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I340" s="14"/>
-    </row>
-    <row r="341" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I340" s="13"/>
+    </row>
+    <row r="341" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="6">
         <v>14201</v>
       </c>
@@ -10673,9 +10716,9 @@
       <c r="H341" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I341" s="14"/>
-    </row>
-    <row r="342" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I341" s="13"/>
+    </row>
+    <row r="342" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="6">
         <v>14202</v>
       </c>
@@ -10700,9 +10743,9 @@
       <c r="H342" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I342" s="14"/>
-    </row>
-    <row r="343" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I342" s="13"/>
+    </row>
+    <row r="343" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="6">
         <v>14203</v>
       </c>
@@ -10727,9 +10770,9 @@
       <c r="H343" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I343" s="14"/>
-    </row>
-    <row r="344" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I343" s="13"/>
+    </row>
+    <row r="344" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="6">
         <v>14204</v>
       </c>
@@ -10754,9 +10797,9 @@
       <c r="H344" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I344" s="14"/>
-    </row>
-    <row r="345" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I344" s="13"/>
+    </row>
+    <row r="345" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="6">
         <v>15101</v>
       </c>
@@ -10781,9 +10824,9 @@
       <c r="H345" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I345" s="14"/>
-    </row>
-    <row r="346" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I345" s="13"/>
+    </row>
+    <row r="346" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="6">
         <v>15102</v>
       </c>
@@ -10808,9 +10851,9 @@
       <c r="H346" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I346" s="14"/>
-    </row>
-    <row r="347" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I346" s="13"/>
+    </row>
+    <row r="347" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A347" s="6">
         <v>15201</v>
       </c>
@@ -10835,9 +10878,9 @@
       <c r="H347" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I347" s="14"/>
-    </row>
-    <row r="348" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I347" s="13"/>
+    </row>
+    <row r="348" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="6">
         <v>15202</v>
       </c>
@@ -10858,15 +10901,15 @@
       <c r="H348" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I348" s="14"/>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I348" s="13"/>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E349" s="8"/>
       <c r="F349" s="7"/>
       <c r="G349" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H348"/>
+  <autoFilter ref="A3:H348" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
@@ -10876,7 +10919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10886,29 +10929,29 @@
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" style="4" customWidth="1"/>
     <col min="3" max="4" width="23" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="4" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" style="5"/>
-    <col min="8" max="8" width="30.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5703125" style="5"/>
+    <col min="5" max="5" width="27.88671875" style="4" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" style="5"/>
+    <col min="8" max="8" width="30.109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>370</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="3" spans="1:10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="3" spans="1:10" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -10935,7 +10978,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1101</v>
       </c>
@@ -10960,10 +11003,10 @@
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="15"/>
+      <c r="I4" s="14"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1107</v>
       </c>
@@ -10988,10 +11031,10 @@
       <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="15"/>
+      <c r="I5" s="14"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1401</v>
       </c>
@@ -11016,10 +11059,10 @@
       <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="15"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>1402</v>
       </c>
@@ -11044,10 +11087,10 @@
       <c r="H7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="15"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>1403</v>
       </c>
@@ -11068,10 +11111,10 @@
       <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1404</v>
       </c>
@@ -11096,10 +11139,10 @@
       <c r="H9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="14"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>1405</v>
       </c>
@@ -11124,10 +11167,10 @@
       <c r="H10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>2101</v>
       </c>
@@ -11152,10 +11195,10 @@
       <c r="H11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>2102</v>
       </c>
@@ -11180,10 +11223,10 @@
       <c r="H12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>2103</v>
       </c>
@@ -11208,10 +11251,10 @@
       <c r="H13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="15"/>
+      <c r="I13" s="14"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>2104</v>
       </c>
@@ -11236,10 +11279,10 @@
       <c r="H14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="15"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>2201</v>
       </c>
@@ -11264,10 +11307,10 @@
       <c r="H15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="15"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>2202</v>
       </c>
@@ -11288,10 +11331,10 @@
       <c r="H16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="15"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>2203</v>
       </c>
@@ -11316,10 +11359,10 @@
       <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="15"/>
+      <c r="I17" s="14"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>2301</v>
       </c>
@@ -11344,10 +11387,10 @@
       <c r="H18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="15"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>2302</v>
       </c>
@@ -11372,10 +11415,10 @@
       <c r="H19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="15"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>3101</v>
       </c>
@@ -11400,10 +11443,10 @@
       <c r="H20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="15"/>
+      <c r="I20" s="14"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>3102</v>
       </c>
@@ -11428,10 +11471,10 @@
       <c r="H21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="15"/>
+      <c r="I21" s="14"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>3103</v>
       </c>
@@ -11456,10 +11499,10 @@
       <c r="H22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="15"/>
+      <c r="I22" s="14"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>3201</v>
       </c>
@@ -11484,10 +11527,10 @@
       <c r="H23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="15"/>
+      <c r="I23" s="14"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>3202</v>
       </c>
@@ -11512,10 +11555,10 @@
       <c r="H24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="15"/>
+      <c r="I24" s="14"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>3301</v>
       </c>
@@ -11540,10 +11583,10 @@
       <c r="H25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="15"/>
+      <c r="I25" s="14"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>3302</v>
       </c>
@@ -11568,10 +11611,10 @@
       <c r="H26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="15"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>3303</v>
       </c>
@@ -11596,10 +11639,10 @@
       <c r="H27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="15"/>
+      <c r="I27" s="14"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>3304</v>
       </c>
@@ -11624,10 +11667,10 @@
       <c r="H28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="15"/>
+      <c r="I28" s="14"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>4101</v>
       </c>
@@ -11652,10 +11695,10 @@
       <c r="H29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I29" s="15"/>
+      <c r="I29" s="14"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>4102</v>
       </c>
@@ -11680,10 +11723,10 @@
       <c r="H30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="15"/>
+      <c r="I30" s="14"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>4103</v>
       </c>
@@ -11708,10 +11751,10 @@
       <c r="H31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="15"/>
+      <c r="I31" s="14"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>4104</v>
       </c>
@@ -11736,10 +11779,10 @@
       <c r="H32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="15"/>
+      <c r="I32" s="14"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>4105</v>
       </c>
@@ -11764,10 +11807,10 @@
       <c r="H33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="15"/>
+      <c r="I33" s="14"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>4106</v>
       </c>
@@ -11792,10 +11835,10 @@
       <c r="H34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="15"/>
+      <c r="I34" s="14"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>4201</v>
       </c>
@@ -11820,10 +11863,10 @@
       <c r="H35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="15"/>
+      <c r="I35" s="14"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>4202</v>
       </c>
@@ -11848,10 +11891,10 @@
       <c r="H36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="15"/>
+      <c r="I36" s="14"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>4203</v>
       </c>
@@ -11876,10 +11919,10 @@
       <c r="H37" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I37" s="15"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>4204</v>
       </c>
@@ -11904,10 +11947,10 @@
       <c r="H38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="15"/>
+      <c r="I38" s="14"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>4301</v>
       </c>
@@ -11932,10 +11975,10 @@
       <c r="H39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I39" s="15"/>
+      <c r="I39" s="14"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>4302</v>
       </c>
@@ -11960,10 +12003,10 @@
       <c r="H40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="15"/>
+      <c r="I40" s="14"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>4303</v>
       </c>
@@ -11988,10 +12031,10 @@
       <c r="H41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="15"/>
+      <c r="I41" s="14"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>4304</v>
       </c>
@@ -12016,10 +12059,10 @@
       <c r="H42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I42" s="15"/>
+      <c r="I42" s="14"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>4305</v>
       </c>
@@ -12044,10 +12087,10 @@
       <c r="H43" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="15"/>
+      <c r="I43" s="14"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>5101</v>
       </c>
@@ -12072,10 +12115,10 @@
       <c r="H44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I44" s="15"/>
+      <c r="I44" s="14"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>5102</v>
       </c>
@@ -12100,10 +12143,10 @@
       <c r="H45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="15"/>
+      <c r="I45" s="14"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>5103</v>
       </c>
@@ -12128,10 +12171,10 @@
       <c r="H46" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I46" s="15"/>
+      <c r="I46" s="14"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>5104</v>
       </c>
@@ -12152,10 +12195,10 @@
       <c r="H47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I47" s="15"/>
+      <c r="I47" s="14"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>5105</v>
       </c>
@@ -12180,10 +12223,10 @@
       <c r="H48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I48" s="15"/>
+      <c r="I48" s="14"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>5107</v>
       </c>
@@ -12208,10 +12251,10 @@
       <c r="H49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I49" s="15"/>
+      <c r="I49" s="14"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>5109</v>
       </c>
@@ -12236,10 +12279,10 @@
       <c r="H50" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="15"/>
+      <c r="I50" s="14"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>5201</v>
       </c>
@@ -12260,10 +12303,10 @@
       <c r="H51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I51" s="15"/>
+      <c r="I51" s="14"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>5301</v>
       </c>
@@ -12288,10 +12331,10 @@
       <c r="H52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I52" s="15"/>
+      <c r="I52" s="14"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>5302</v>
       </c>
@@ -12316,10 +12359,10 @@
       <c r="H53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I53" s="15"/>
+      <c r="I53" s="14"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>5303</v>
       </c>
@@ -12344,10 +12387,10 @@
       <c r="H54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I54" s="15"/>
+      <c r="I54" s="14"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>5304</v>
       </c>
@@ -12372,10 +12415,10 @@
       <c r="H55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="15"/>
+      <c r="I55" s="14"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>5401</v>
       </c>
@@ -12400,10 +12443,10 @@
       <c r="H56" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I56" s="15"/>
+      <c r="I56" s="14"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>5402</v>
       </c>
@@ -12428,10 +12471,10 @@
       <c r="H57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I57" s="15"/>
+      <c r="I57" s="14"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>5403</v>
       </c>
@@ -12456,10 +12499,10 @@
       <c r="H58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I58" s="15"/>
+      <c r="I58" s="14"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>5404</v>
       </c>
@@ -12484,10 +12527,10 @@
       <c r="H59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I59" s="15"/>
+      <c r="I59" s="14"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>5405</v>
       </c>
@@ -12512,10 +12555,10 @@
       <c r="H60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I60" s="15"/>
+      <c r="I60" s="14"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>5501</v>
       </c>
@@ -12540,10 +12583,10 @@
       <c r="H61" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I61" s="15"/>
+      <c r="I61" s="14"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>5502</v>
       </c>
@@ -12568,10 +12611,10 @@
       <c r="H62" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I62" s="15"/>
+      <c r="I62" s="14"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>5503</v>
       </c>
@@ -12596,10 +12639,10 @@
       <c r="H63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I63" s="15"/>
+      <c r="I63" s="14"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>5504</v>
       </c>
@@ -12624,10 +12667,10 @@
       <c r="H64" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I64" s="15"/>
+      <c r="I64" s="14"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>5506</v>
       </c>
@@ -12652,10 +12695,10 @@
       <c r="H65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I65" s="15"/>
+      <c r="I65" s="14"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>5601</v>
       </c>
@@ -12680,10 +12723,10 @@
       <c r="H66" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I66" s="15"/>
+      <c r="I66" s="14"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>5602</v>
       </c>
@@ -12708,10 +12751,10 @@
       <c r="H67" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I67" s="15"/>
+      <c r="I67" s="14"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>5603</v>
       </c>
@@ -12736,10 +12779,10 @@
       <c r="H68" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I68" s="15"/>
+      <c r="I68" s="14"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>5604</v>
       </c>
@@ -12764,10 +12807,10 @@
       <c r="H69" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I69" s="15"/>
+      <c r="I69" s="14"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>5605</v>
       </c>
@@ -12792,10 +12835,10 @@
       <c r="H70" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I70" s="15"/>
+      <c r="I70" s="14"/>
       <c r="J70" s="5"/>
     </row>
-    <row r="71" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>5606</v>
       </c>
@@ -12820,10 +12863,10 @@
       <c r="H71" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I71" s="15"/>
+      <c r="I71" s="14"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>5701</v>
       </c>
@@ -12848,10 +12891,10 @@
       <c r="H72" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I72" s="15"/>
+      <c r="I72" s="14"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>5702</v>
       </c>
@@ -12876,10 +12919,10 @@
       <c r="H73" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I73" s="15"/>
+      <c r="I73" s="14"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>5703</v>
       </c>
@@ -12904,10 +12947,10 @@
       <c r="H74" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I74" s="15"/>
+      <c r="I74" s="14"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>5704</v>
       </c>
@@ -12932,10 +12975,10 @@
       <c r="H75" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I75" s="15"/>
+      <c r="I75" s="14"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>5705</v>
       </c>
@@ -12960,10 +13003,10 @@
       <c r="H76" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I76" s="15"/>
+      <c r="I76" s="14"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>5706</v>
       </c>
@@ -12988,10 +13031,10 @@
       <c r="H77" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I77" s="15"/>
+      <c r="I77" s="14"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>5801</v>
       </c>
@@ -13016,10 +13059,10 @@
       <c r="H78" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I78" s="15"/>
+      <c r="I78" s="14"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>5802</v>
       </c>
@@ -13044,10 +13087,10 @@
       <c r="H79" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I79" s="15"/>
+      <c r="I79" s="14"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>5803</v>
       </c>
@@ -13072,10 +13115,10 @@
       <c r="H80" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I80" s="15"/>
+      <c r="I80" s="14"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>5804</v>
       </c>
@@ -13100,10 +13143,10 @@
       <c r="H81" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I81" s="15"/>
+      <c r="I81" s="14"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>6101</v>
       </c>
@@ -13128,10 +13171,10 @@
       <c r="H82" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I82" s="15"/>
+      <c r="I82" s="14"/>
       <c r="J82" s="5"/>
     </row>
-    <row r="83" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>6102</v>
       </c>
@@ -13156,10 +13199,10 @@
       <c r="H83" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I83" s="15"/>
+      <c r="I83" s="14"/>
       <c r="J83" s="5"/>
     </row>
-    <row r="84" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>6103</v>
       </c>
@@ -13184,10 +13227,10 @@
       <c r="H84" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I84" s="15"/>
+      <c r="I84" s="14"/>
       <c r="J84" s="5"/>
     </row>
-    <row r="85" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>6104</v>
       </c>
@@ -13212,10 +13255,10 @@
       <c r="H85" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I85" s="15"/>
+      <c r="I85" s="14"/>
       <c r="J85" s="5"/>
     </row>
-    <row r="86" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>6105</v>
       </c>
@@ -13240,10 +13283,10 @@
       <c r="H86" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I86" s="15"/>
+      <c r="I86" s="14"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>6106</v>
       </c>
@@ -13268,10 +13311,10 @@
       <c r="H87" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I87" s="15"/>
+      <c r="I87" s="14"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>6107</v>
       </c>
@@ -13296,10 +13339,10 @@
       <c r="H88" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I88" s="15"/>
+      <c r="I88" s="14"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>6108</v>
       </c>
@@ -13324,10 +13367,10 @@
       <c r="H89" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I89" s="15"/>
+      <c r="I89" s="14"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>6109</v>
       </c>
@@ -13352,10 +13395,10 @@
       <c r="H90" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I90" s="15"/>
+      <c r="I90" s="14"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>6110</v>
       </c>
@@ -13380,10 +13423,10 @@
       <c r="H91" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I91" s="15"/>
+      <c r="I91" s="14"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>6111</v>
       </c>
@@ -13408,10 +13451,10 @@
       <c r="H92" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I92" s="15"/>
+      <c r="I92" s="14"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>6112</v>
       </c>
@@ -13436,10 +13479,10 @@
       <c r="H93" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I93" s="15"/>
+      <c r="I93" s="14"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>6113</v>
       </c>
@@ -13464,10 +13507,10 @@
       <c r="H94" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I94" s="15"/>
+      <c r="I94" s="14"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>6114</v>
       </c>
@@ -13492,10 +13535,10 @@
       <c r="H95" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I95" s="15"/>
+      <c r="I95" s="14"/>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>6115</v>
       </c>
@@ -13520,10 +13563,10 @@
       <c r="H96" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I96" s="15"/>
+      <c r="I96" s="14"/>
       <c r="J96" s="5"/>
     </row>
-    <row r="97" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>6116</v>
       </c>
@@ -13548,10 +13591,10 @@
       <c r="H97" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I97" s="15"/>
+      <c r="I97" s="14"/>
       <c r="J97" s="5"/>
     </row>
-    <row r="98" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>6117</v>
       </c>
@@ -13576,10 +13619,10 @@
       <c r="H98" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I98" s="15"/>
+      <c r="I98" s="14"/>
       <c r="J98" s="5"/>
     </row>
-    <row r="99" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>6201</v>
       </c>
@@ -13604,10 +13647,10 @@
       <c r="H99" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I99" s="15"/>
+      <c r="I99" s="14"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>6202</v>
       </c>
@@ -13632,10 +13675,10 @@
       <c r="H100" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I100" s="15"/>
+      <c r="I100" s="14"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>6203</v>
       </c>
@@ -13660,10 +13703,10 @@
       <c r="H101" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I101" s="15"/>
+      <c r="I101" s="14"/>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>6204</v>
       </c>
@@ -13688,10 +13731,10 @@
       <c r="H102" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I102" s="15"/>
+      <c r="I102" s="14"/>
       <c r="J102" s="5"/>
     </row>
-    <row r="103" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>6205</v>
       </c>
@@ -13716,10 +13759,10 @@
       <c r="H103" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I103" s="15"/>
+      <c r="I103" s="14"/>
       <c r="J103" s="5"/>
     </row>
-    <row r="104" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>6206</v>
       </c>
@@ -13744,10 +13787,10 @@
       <c r="H104" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I104" s="15"/>
+      <c r="I104" s="14"/>
       <c r="J104" s="5"/>
     </row>
-    <row r="105" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>6301</v>
       </c>
@@ -13772,10 +13815,10 @@
       <c r="H105" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I105" s="15"/>
+      <c r="I105" s="14"/>
       <c r="J105" s="5"/>
     </row>
-    <row r="106" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>6302</v>
       </c>
@@ -13800,10 +13843,10 @@
       <c r="H106" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I106" s="15"/>
+      <c r="I106" s="14"/>
       <c r="J106" s="5"/>
     </row>
-    <row r="107" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>6303</v>
       </c>
@@ -13828,10 +13871,10 @@
       <c r="H107" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I107" s="15"/>
+      <c r="I107" s="14"/>
       <c r="J107" s="5"/>
     </row>
-    <row r="108" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>6304</v>
       </c>
@@ -13856,10 +13899,10 @@
       <c r="H108" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I108" s="15"/>
+      <c r="I108" s="14"/>
       <c r="J108" s="5"/>
     </row>
-    <row r="109" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>6305</v>
       </c>
@@ -13884,10 +13927,10 @@
       <c r="H109" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I109" s="15"/>
+      <c r="I109" s="14"/>
       <c r="J109" s="5"/>
     </row>
-    <row r="110" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>6306</v>
       </c>
@@ -13912,10 +13955,10 @@
       <c r="H110" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I110" s="15"/>
+      <c r="I110" s="14"/>
       <c r="J110" s="5"/>
     </row>
-    <row r="111" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>6307</v>
       </c>
@@ -13940,10 +13983,10 @@
       <c r="H111" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I111" s="15"/>
+      <c r="I111" s="14"/>
       <c r="J111" s="5"/>
     </row>
-    <row r="112" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>6308</v>
       </c>
@@ -13968,10 +14011,10 @@
       <c r="H112" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I112" s="15"/>
+      <c r="I112" s="14"/>
       <c r="J112" s="5"/>
     </row>
-    <row r="113" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>6309</v>
       </c>
@@ -13996,10 +14039,10 @@
       <c r="H113" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I113" s="15"/>
+      <c r="I113" s="14"/>
       <c r="J113" s="5"/>
     </row>
-    <row r="114" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>6310</v>
       </c>
@@ -14024,10 +14067,10 @@
       <c r="H114" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I114" s="15"/>
+      <c r="I114" s="14"/>
       <c r="J114" s="5"/>
     </row>
-    <row r="115" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>7101</v>
       </c>
@@ -14052,10 +14095,10 @@
       <c r="H115" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I115" s="15"/>
+      <c r="I115" s="14"/>
       <c r="J115" s="5"/>
     </row>
-    <row r="116" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>7102</v>
       </c>
@@ -14080,10 +14123,10 @@
       <c r="H116" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I116" s="15"/>
+      <c r="I116" s="14"/>
       <c r="J116" s="5"/>
     </row>
-    <row r="117" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>7103</v>
       </c>
@@ -14108,10 +14151,10 @@
       <c r="H117" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I117" s="15"/>
+      <c r="I117" s="14"/>
       <c r="J117" s="5"/>
     </row>
-    <row r="118" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>7104</v>
       </c>
@@ -14136,10 +14179,10 @@
       <c r="H118" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I118" s="15"/>
+      <c r="I118" s="14"/>
       <c r="J118" s="5"/>
     </row>
-    <row r="119" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>7105</v>
       </c>
@@ -14164,10 +14207,10 @@
       <c r="H119" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I119" s="15"/>
+      <c r="I119" s="14"/>
       <c r="J119" s="5"/>
     </row>
-    <row r="120" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>7106</v>
       </c>
@@ -14192,10 +14235,10 @@
       <c r="H120" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I120" s="15"/>
+      <c r="I120" s="14"/>
       <c r="J120" s="5"/>
     </row>
-    <row r="121" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>7107</v>
       </c>
@@ -14220,10 +14263,10 @@
       <c r="H121" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I121" s="15"/>
+      <c r="I121" s="14"/>
       <c r="J121" s="5"/>
     </row>
-    <row r="122" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>7108</v>
       </c>
@@ -14248,10 +14291,10 @@
       <c r="H122" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I122" s="15"/>
+      <c r="I122" s="14"/>
       <c r="J122" s="5"/>
     </row>
-    <row r="123" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>7109</v>
       </c>
@@ -14276,10 +14319,10 @@
       <c r="H123" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I123" s="15"/>
+      <c r="I123" s="14"/>
       <c r="J123" s="5"/>
     </row>
-    <row r="124" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>7110</v>
       </c>
@@ -14304,10 +14347,10 @@
       <c r="H124" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I124" s="15"/>
+      <c r="I124" s="14"/>
       <c r="J124" s="5"/>
     </row>
-    <row r="125" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>7201</v>
       </c>
@@ -14332,10 +14375,10 @@
       <c r="H125" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I125" s="15"/>
+      <c r="I125" s="14"/>
       <c r="J125" s="5"/>
     </row>
-    <row r="126" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>7202</v>
       </c>
@@ -14360,10 +14403,10 @@
       <c r="H126" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I126" s="15"/>
+      <c r="I126" s="14"/>
       <c r="J126" s="5"/>
     </row>
-    <row r="127" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>7203</v>
       </c>
@@ -14388,10 +14431,10 @@
       <c r="H127" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I127" s="15"/>
+      <c r="I127" s="14"/>
       <c r="J127" s="5"/>
     </row>
-    <row r="128" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>7301</v>
       </c>
@@ -14416,10 +14459,10 @@
       <c r="H128" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I128" s="15"/>
+      <c r="I128" s="14"/>
       <c r="J128" s="5"/>
     </row>
-    <row r="129" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>7302</v>
       </c>
@@ -14444,10 +14487,10 @@
       <c r="H129" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I129" s="15"/>
+      <c r="I129" s="14"/>
       <c r="J129" s="5"/>
     </row>
-    <row r="130" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>7303</v>
       </c>
@@ -14472,10 +14515,10 @@
       <c r="H130" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I130" s="15"/>
+      <c r="I130" s="14"/>
       <c r="J130" s="5"/>
     </row>
-    <row r="131" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>7304</v>
       </c>
@@ -14500,10 +14543,10 @@
       <c r="H131" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I131" s="15"/>
+      <c r="I131" s="14"/>
       <c r="J131" s="5"/>
     </row>
-    <row r="132" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>7305</v>
       </c>
@@ -14528,10 +14571,10 @@
       <c r="H132" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I132" s="15"/>
+      <c r="I132" s="14"/>
       <c r="J132" s="5"/>
     </row>
-    <row r="133" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>7306</v>
       </c>
@@ -14556,10 +14599,10 @@
       <c r="H133" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I133" s="15"/>
+      <c r="I133" s="14"/>
       <c r="J133" s="5"/>
     </row>
-    <row r="134" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>7307</v>
       </c>
@@ -14584,10 +14627,10 @@
       <c r="H134" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I134" s="15"/>
+      <c r="I134" s="14"/>
       <c r="J134" s="5"/>
     </row>
-    <row r="135" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>7308</v>
       </c>
@@ -14612,10 +14655,10 @@
       <c r="H135" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I135" s="15"/>
+      <c r="I135" s="14"/>
       <c r="J135" s="5"/>
     </row>
-    <row r="136" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>7309</v>
       </c>
@@ -14640,10 +14683,10 @@
       <c r="H136" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I136" s="15"/>
+      <c r="I136" s="14"/>
       <c r="J136" s="5"/>
     </row>
-    <row r="137" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>7401</v>
       </c>
@@ -14668,10 +14711,10 @@
       <c r="H137" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I137" s="15"/>
+      <c r="I137" s="14"/>
       <c r="J137" s="5"/>
     </row>
-    <row r="138" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>7402</v>
       </c>
@@ -14696,10 +14739,10 @@
       <c r="H138" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I138" s="15"/>
+      <c r="I138" s="14"/>
       <c r="J138" s="5"/>
     </row>
-    <row r="139" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>7403</v>
       </c>
@@ -14724,10 +14767,10 @@
       <c r="H139" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I139" s="15"/>
+      <c r="I139" s="14"/>
       <c r="J139" s="5"/>
     </row>
-    <row r="140" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>7404</v>
       </c>
@@ -14752,10 +14795,10 @@
       <c r="H140" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I140" s="15"/>
+      <c r="I140" s="14"/>
       <c r="J140" s="5"/>
     </row>
-    <row r="141" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>7405</v>
       </c>
@@ -14780,10 +14823,10 @@
       <c r="H141" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I141" s="15"/>
+      <c r="I141" s="14"/>
       <c r="J141" s="5"/>
     </row>
-    <row r="142" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>7406</v>
       </c>
@@ -14808,10 +14851,10 @@
       <c r="H142" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I142" s="15"/>
+      <c r="I142" s="14"/>
       <c r="J142" s="5"/>
     </row>
-    <row r="143" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>7407</v>
       </c>
@@ -14836,10 +14879,10 @@
       <c r="H143" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I143" s="15"/>
+      <c r="I143" s="14"/>
       <c r="J143" s="5"/>
     </row>
-    <row r="144" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>7408</v>
       </c>
@@ -14864,10 +14907,10 @@
       <c r="H144" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I144" s="15"/>
+      <c r="I144" s="14"/>
       <c r="J144" s="5"/>
     </row>
-    <row r="145" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>8101</v>
       </c>
@@ -14892,10 +14935,10 @@
       <c r="H145" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I145" s="15"/>
+      <c r="I145" s="14"/>
       <c r="J145" s="5"/>
     </row>
-    <row r="146" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>8102</v>
       </c>
@@ -14920,10 +14963,10 @@
       <c r="H146" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I146" s="15"/>
+      <c r="I146" s="14"/>
       <c r="J146" s="5"/>
     </row>
-    <row r="147" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>8103</v>
       </c>
@@ -14948,10 +14991,10 @@
       <c r="H147" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I147" s="15"/>
+      <c r="I147" s="14"/>
       <c r="J147" s="5"/>
     </row>
-    <row r="148" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>8104</v>
       </c>
@@ -14976,10 +15019,10 @@
       <c r="H148" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I148" s="15"/>
+      <c r="I148" s="14"/>
       <c r="J148" s="5"/>
     </row>
-    <row r="149" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>8105</v>
       </c>
@@ -15004,10 +15047,10 @@
       <c r="H149" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I149" s="15"/>
+      <c r="I149" s="14"/>
       <c r="J149" s="5"/>
     </row>
-    <row r="150" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>8106</v>
       </c>
@@ -15032,10 +15075,10 @@
       <c r="H150" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I150" s="15"/>
+      <c r="I150" s="14"/>
       <c r="J150" s="5"/>
     </row>
-    <row r="151" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>8107</v>
       </c>
@@ -15060,10 +15103,10 @@
       <c r="H151" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I151" s="15"/>
+      <c r="I151" s="14"/>
       <c r="J151" s="5"/>
     </row>
-    <row r="152" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>8108</v>
       </c>
@@ -15088,10 +15131,10 @@
       <c r="H152" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I152" s="15"/>
+      <c r="I152" s="14"/>
       <c r="J152" s="5"/>
     </row>
-    <row r="153" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>8109</v>
       </c>
@@ -15116,10 +15159,10 @@
       <c r="H153" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I153" s="15"/>
+      <c r="I153" s="14"/>
       <c r="J153" s="5"/>
     </row>
-    <row r="154" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>8110</v>
       </c>
@@ -15144,10 +15187,10 @@
       <c r="H154" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I154" s="15"/>
+      <c r="I154" s="14"/>
       <c r="J154" s="5"/>
     </row>
-    <row r="155" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>8111</v>
       </c>
@@ -15172,10 +15215,10 @@
       <c r="H155" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I155" s="15"/>
+      <c r="I155" s="14"/>
       <c r="J155" s="5"/>
     </row>
-    <row r="156" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>8112</v>
       </c>
@@ -15200,10 +15243,10 @@
       <c r="H156" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I156" s="15"/>
+      <c r="I156" s="14"/>
       <c r="J156" s="5"/>
     </row>
-    <row r="157" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>8201</v>
       </c>
@@ -15228,10 +15271,10 @@
       <c r="H157" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I157" s="15"/>
+      <c r="I157" s="14"/>
       <c r="J157" s="5"/>
     </row>
-    <row r="158" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>8202</v>
       </c>
@@ -15256,10 +15299,10 @@
       <c r="H158" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I158" s="15"/>
+      <c r="I158" s="14"/>
       <c r="J158" s="5"/>
     </row>
-    <row r="159" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>8203</v>
       </c>
@@ -15284,10 +15327,10 @@
       <c r="H159" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I159" s="15"/>
+      <c r="I159" s="14"/>
       <c r="J159" s="5"/>
     </row>
-    <row r="160" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>8204</v>
       </c>
@@ -15312,10 +15355,10 @@
       <c r="H160" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I160" s="15"/>
+      <c r="I160" s="14"/>
       <c r="J160" s="5"/>
     </row>
-    <row r="161" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>8205</v>
       </c>
@@ -15340,10 +15383,10 @@
       <c r="H161" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I161" s="15"/>
+      <c r="I161" s="14"/>
       <c r="J161" s="5"/>
     </row>
-    <row r="162" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <v>8206</v>
       </c>
@@ -15368,10 +15411,10 @@
       <c r="H162" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I162" s="15"/>
+      <c r="I162" s="14"/>
       <c r="J162" s="5"/>
     </row>
-    <row r="163" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>8207</v>
       </c>
@@ -15396,10 +15439,10 @@
       <c r="H163" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I163" s="15"/>
+      <c r="I163" s="14"/>
       <c r="J163" s="5"/>
     </row>
-    <row r="164" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>8301</v>
       </c>
@@ -15424,10 +15467,10 @@
       <c r="H164" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I164" s="15"/>
+      <c r="I164" s="14"/>
       <c r="J164" s="5"/>
     </row>
-    <row r="165" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <v>8302</v>
       </c>
@@ -15452,10 +15495,10 @@
       <c r="H165" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I165" s="15"/>
+      <c r="I165" s="14"/>
       <c r="J165" s="5"/>
     </row>
-    <row r="166" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <v>8303</v>
       </c>
@@ -15480,10 +15523,10 @@
       <c r="H166" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I166" s="15"/>
+      <c r="I166" s="14"/>
       <c r="J166" s="5"/>
     </row>
-    <row r="167" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>8304</v>
       </c>
@@ -15508,10 +15551,10 @@
       <c r="H167" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I167" s="15"/>
+      <c r="I167" s="14"/>
       <c r="J167" s="5"/>
     </row>
-    <row r="168" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>8305</v>
       </c>
@@ -15536,10 +15579,10 @@
       <c r="H168" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I168" s="15"/>
+      <c r="I168" s="14"/>
       <c r="J168" s="5"/>
     </row>
-    <row r="169" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
         <v>8306</v>
       </c>
@@ -15564,10 +15607,10 @@
       <c r="H169" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I169" s="15"/>
+      <c r="I169" s="14"/>
       <c r="J169" s="5"/>
     </row>
-    <row r="170" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>8307</v>
       </c>
@@ -15592,10 +15635,10 @@
       <c r="H170" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I170" s="15"/>
+      <c r="I170" s="14"/>
       <c r="J170" s="5"/>
     </row>
-    <row r="171" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>8308</v>
       </c>
@@ -15620,10 +15663,10 @@
       <c r="H171" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I171" s="15"/>
+      <c r="I171" s="14"/>
       <c r="J171" s="5"/>
     </row>
-    <row r="172" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6">
         <v>8309</v>
       </c>
@@ -15648,10 +15691,10 @@
       <c r="H172" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I172" s="15"/>
+      <c r="I172" s="14"/>
       <c r="J172" s="5"/>
     </row>
-    <row r="173" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6">
         <v>8310</v>
       </c>
@@ -15676,10 +15719,10 @@
       <c r="H173" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I173" s="15"/>
+      <c r="I173" s="14"/>
       <c r="J173" s="5"/>
     </row>
-    <row r="174" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6">
         <v>8311</v>
       </c>
@@ -15704,10 +15747,10 @@
       <c r="H174" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I174" s="15"/>
+      <c r="I174" s="14"/>
       <c r="J174" s="5"/>
     </row>
-    <row r="175" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6">
         <v>8312</v>
       </c>
@@ -15732,10 +15775,10 @@
       <c r="H175" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I175" s="15"/>
+      <c r="I175" s="14"/>
       <c r="J175" s="5"/>
     </row>
-    <row r="176" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6">
         <v>8313</v>
       </c>
@@ -15760,10 +15803,10 @@
       <c r="H176" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I176" s="15"/>
+      <c r="I176" s="14"/>
       <c r="J176" s="5"/>
     </row>
-    <row r="177" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6">
         <v>8314</v>
       </c>
@@ -15788,10 +15831,10 @@
       <c r="H177" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I177" s="15"/>
+      <c r="I177" s="14"/>
       <c r="J177" s="5"/>
     </row>
-    <row r="178" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6">
         <v>8401</v>
       </c>
@@ -15816,10 +15859,10 @@
       <c r="H178" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I178" s="15"/>
+      <c r="I178" s="14"/>
       <c r="J178" s="5"/>
     </row>
-    <row r="179" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6">
         <v>8402</v>
       </c>
@@ -15844,10 +15887,10 @@
       <c r="H179" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I179" s="15"/>
+      <c r="I179" s="14"/>
       <c r="J179" s="5"/>
     </row>
-    <row r="180" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6">
         <v>8403</v>
       </c>
@@ -15872,10 +15915,10 @@
       <c r="H180" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I180" s="15"/>
+      <c r="I180" s="14"/>
       <c r="J180" s="5"/>
     </row>
-    <row r="181" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6">
         <v>8404</v>
       </c>
@@ -15900,10 +15943,10 @@
       <c r="H181" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I181" s="15"/>
+      <c r="I181" s="14"/>
       <c r="J181" s="5"/>
     </row>
-    <row r="182" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6">
         <v>8405</v>
       </c>
@@ -15928,10 +15971,10 @@
       <c r="H182" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I182" s="15"/>
+      <c r="I182" s="14"/>
       <c r="J182" s="5"/>
     </row>
-    <row r="183" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6">
         <v>8406</v>
       </c>
@@ -15956,10 +15999,10 @@
       <c r="H183" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I183" s="15"/>
+      <c r="I183" s="14"/>
       <c r="J183" s="5"/>
     </row>
-    <row r="184" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6">
         <v>8407</v>
       </c>
@@ -15984,10 +16027,10 @@
       <c r="H184" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I184" s="15"/>
+      <c r="I184" s="14"/>
       <c r="J184" s="5"/>
     </row>
-    <row r="185" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6">
         <v>8408</v>
       </c>
@@ -16012,10 +16055,10 @@
       <c r="H185" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I185" s="15"/>
+      <c r="I185" s="14"/>
       <c r="J185" s="5"/>
     </row>
-    <row r="186" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6">
         <v>8409</v>
       </c>
@@ -16040,10 +16083,10 @@
       <c r="H186" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I186" s="15"/>
+      <c r="I186" s="14"/>
       <c r="J186" s="5"/>
     </row>
-    <row r="187" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6">
         <v>8410</v>
       </c>
@@ -16068,10 +16111,10 @@
       <c r="H187" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I187" s="15"/>
+      <c r="I187" s="14"/>
       <c r="J187" s="5"/>
     </row>
-    <row r="188" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6">
         <v>8411</v>
       </c>
@@ -16096,10 +16139,10 @@
       <c r="H188" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I188" s="15"/>
+      <c r="I188" s="14"/>
       <c r="J188" s="5"/>
     </row>
-    <row r="189" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6">
         <v>8412</v>
       </c>
@@ -16124,10 +16167,10 @@
       <c r="H189" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I189" s="15"/>
+      <c r="I189" s="14"/>
       <c r="J189" s="5"/>
     </row>
-    <row r="190" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6">
         <v>8413</v>
       </c>
@@ -16152,10 +16195,10 @@
       <c r="H190" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I190" s="15"/>
+      <c r="I190" s="14"/>
       <c r="J190" s="5"/>
     </row>
-    <row r="191" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6">
         <v>8414</v>
       </c>
@@ -16180,10 +16223,10 @@
       <c r="H191" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I191" s="15"/>
+      <c r="I191" s="14"/>
       <c r="J191" s="5"/>
     </row>
-    <row r="192" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6">
         <v>8415</v>
       </c>
@@ -16208,10 +16251,10 @@
       <c r="H192" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I192" s="15"/>
+      <c r="I192" s="14"/>
       <c r="J192" s="5"/>
     </row>
-    <row r="193" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6">
         <v>8416</v>
       </c>
@@ -16236,10 +16279,10 @@
       <c r="H193" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I193" s="15"/>
+      <c r="I193" s="14"/>
       <c r="J193" s="5"/>
     </row>
-    <row r="194" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6">
         <v>8417</v>
       </c>
@@ -16264,10 +16307,10 @@
       <c r="H194" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I194" s="15"/>
+      <c r="I194" s="14"/>
       <c r="J194" s="5"/>
     </row>
-    <row r="195" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6">
         <v>8418</v>
       </c>
@@ -16292,10 +16335,10 @@
       <c r="H195" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I195" s="15"/>
+      <c r="I195" s="14"/>
       <c r="J195" s="5"/>
     </row>
-    <row r="196" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6">
         <v>8419</v>
       </c>
@@ -16320,10 +16363,10 @@
       <c r="H196" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I196" s="15"/>
+      <c r="I196" s="14"/>
       <c r="J196" s="5"/>
     </row>
-    <row r="197" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6">
         <v>8420</v>
       </c>
@@ -16348,10 +16391,10 @@
       <c r="H197" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I197" s="15"/>
+      <c r="I197" s="14"/>
       <c r="J197" s="5"/>
     </row>
-    <row r="198" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6">
         <v>8421</v>
       </c>
@@ -16376,10 +16419,10 @@
       <c r="H198" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I198" s="15"/>
+      <c r="I198" s="14"/>
       <c r="J198" s="5"/>
     </row>
-    <row r="199" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6">
         <v>9101</v>
       </c>
@@ -16404,10 +16447,10 @@
       <c r="H199" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I199" s="15"/>
+      <c r="I199" s="14"/>
       <c r="J199" s="5"/>
     </row>
-    <row r="200" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6">
         <v>9102</v>
       </c>
@@ -16432,10 +16475,10 @@
       <c r="H200" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I200" s="15"/>
+      <c r="I200" s="14"/>
       <c r="J200" s="5"/>
     </row>
-    <row r="201" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6">
         <v>9103</v>
       </c>
@@ -16460,10 +16503,10 @@
       <c r="H201" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I201" s="15"/>
+      <c r="I201" s="14"/>
       <c r="J201" s="5"/>
     </row>
-    <row r="202" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6">
         <v>9104</v>
       </c>
@@ -16488,10 +16531,10 @@
       <c r="H202" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I202" s="15"/>
+      <c r="I202" s="14"/>
       <c r="J202" s="5"/>
     </row>
-    <row r="203" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6">
         <v>9105</v>
       </c>
@@ -16516,10 +16559,10 @@
       <c r="H203" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I203" s="15"/>
+      <c r="I203" s="14"/>
       <c r="J203" s="5"/>
     </row>
-    <row r="204" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6">
         <v>9106</v>
       </c>
@@ -16544,10 +16587,10 @@
       <c r="H204" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I204" s="15"/>
+      <c r="I204" s="14"/>
       <c r="J204" s="5"/>
     </row>
-    <row r="205" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6">
         <v>9107</v>
       </c>
@@ -16572,10 +16615,10 @@
       <c r="H205" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I205" s="15"/>
+      <c r="I205" s="14"/>
       <c r="J205" s="5"/>
     </row>
-    <row r="206" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6">
         <v>9108</v>
       </c>
@@ -16600,10 +16643,10 @@
       <c r="H206" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I206" s="15"/>
+      <c r="I206" s="14"/>
       <c r="J206" s="5"/>
     </row>
-    <row r="207" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6">
         <v>9109</v>
       </c>
@@ -16628,10 +16671,10 @@
       <c r="H207" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I207" s="15"/>
+      <c r="I207" s="14"/>
       <c r="J207" s="5"/>
     </row>
-    <row r="208" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6">
         <v>9110</v>
       </c>
@@ -16656,10 +16699,10 @@
       <c r="H208" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I208" s="15"/>
+      <c r="I208" s="14"/>
       <c r="J208" s="5"/>
     </row>
-    <row r="209" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6">
         <v>9111</v>
       </c>
@@ -16684,10 +16727,10 @@
       <c r="H209" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I209" s="15"/>
+      <c r="I209" s="14"/>
       <c r="J209" s="5"/>
     </row>
-    <row r="210" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6">
         <v>9112</v>
       </c>
@@ -16712,10 +16755,10 @@
       <c r="H210" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I210" s="15"/>
+      <c r="I210" s="14"/>
       <c r="J210" s="5"/>
     </row>
-    <row r="211" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6">
         <v>9113</v>
       </c>
@@ -16740,10 +16783,10 @@
       <c r="H211" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I211" s="15"/>
+      <c r="I211" s="14"/>
       <c r="J211" s="5"/>
     </row>
-    <row r="212" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="6">
         <v>9114</v>
       </c>
@@ -16768,10 +16811,10 @@
       <c r="H212" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I212" s="15"/>
+      <c r="I212" s="14"/>
       <c r="J212" s="5"/>
     </row>
-    <row r="213" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="6">
         <v>9115</v>
       </c>
@@ -16796,10 +16839,10 @@
       <c r="H213" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I213" s="15"/>
+      <c r="I213" s="14"/>
       <c r="J213" s="5"/>
     </row>
-    <row r="214" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6">
         <v>9116</v>
       </c>
@@ -16824,10 +16867,10 @@
       <c r="H214" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I214" s="15"/>
+      <c r="I214" s="14"/>
       <c r="J214" s="5"/>
     </row>
-    <row r="215" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6">
         <v>9117</v>
       </c>
@@ -16852,10 +16895,10 @@
       <c r="H215" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I215" s="15"/>
+      <c r="I215" s="14"/>
       <c r="J215" s="5"/>
     </row>
-    <row r="216" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="6">
         <v>9118</v>
       </c>
@@ -16880,10 +16923,10 @@
       <c r="H216" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I216" s="15"/>
+      <c r="I216" s="14"/>
       <c r="J216" s="5"/>
     </row>
-    <row r="217" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
         <v>9119</v>
       </c>
@@ -16908,10 +16951,10 @@
       <c r="H217" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I217" s="15"/>
+      <c r="I217" s="14"/>
       <c r="J217" s="5"/>
     </row>
-    <row r="218" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6">
         <v>9120</v>
       </c>
@@ -16936,10 +16979,10 @@
       <c r="H218" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I218" s="15"/>
+      <c r="I218" s="14"/>
       <c r="J218" s="5"/>
     </row>
-    <row r="219" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6">
         <v>9121</v>
       </c>
@@ -16964,10 +17007,10 @@
       <c r="H219" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I219" s="15"/>
+      <c r="I219" s="14"/>
       <c r="J219" s="5"/>
     </row>
-    <row r="220" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A220" s="6">
         <v>9201</v>
       </c>
@@ -16992,10 +17035,10 @@
       <c r="H220" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I220" s="15"/>
+      <c r="I220" s="14"/>
       <c r="J220" s="5"/>
     </row>
-    <row r="221" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A221" s="6">
         <v>9202</v>
       </c>
@@ -17020,10 +17063,10 @@
       <c r="H221" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I221" s="15"/>
+      <c r="I221" s="14"/>
       <c r="J221" s="5"/>
     </row>
-    <row r="222" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A222" s="6">
         <v>9203</v>
       </c>
@@ -17048,10 +17091,10 @@
       <c r="H222" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I222" s="15"/>
+      <c r="I222" s="14"/>
       <c r="J222" s="5"/>
     </row>
-    <row r="223" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A223" s="6">
         <v>9204</v>
       </c>
@@ -17076,10 +17119,10 @@
       <c r="H223" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I223" s="15"/>
+      <c r="I223" s="14"/>
       <c r="J223" s="5"/>
     </row>
-    <row r="224" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="6">
         <v>9205</v>
       </c>
@@ -17104,10 +17147,10 @@
       <c r="H224" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I224" s="15"/>
+      <c r="I224" s="14"/>
       <c r="J224" s="5"/>
     </row>
-    <row r="225" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" s="6">
         <v>9206</v>
       </c>
@@ -17132,10 +17175,10 @@
       <c r="H225" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I225" s="15"/>
+      <c r="I225" s="14"/>
       <c r="J225" s="5"/>
     </row>
-    <row r="226" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6">
         <v>9207</v>
       </c>
@@ -17160,10 +17203,10 @@
       <c r="H226" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I226" s="15"/>
+      <c r="I226" s="14"/>
       <c r="J226" s="5"/>
     </row>
-    <row r="227" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6">
         <v>9208</v>
       </c>
@@ -17188,10 +17231,10 @@
       <c r="H227" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I227" s="15"/>
+      <c r="I227" s="14"/>
       <c r="J227" s="5"/>
     </row>
-    <row r="228" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="6">
         <v>9209</v>
       </c>
@@ -17216,10 +17259,10 @@
       <c r="H228" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I228" s="15"/>
+      <c r="I228" s="14"/>
       <c r="J228" s="5"/>
     </row>
-    <row r="229" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="6">
         <v>9210</v>
       </c>
@@ -17244,10 +17287,10 @@
       <c r="H229" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I229" s="15"/>
+      <c r="I229" s="14"/>
       <c r="J229" s="5"/>
     </row>
-    <row r="230" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="6">
         <v>9211</v>
       </c>
@@ -17272,10 +17315,10 @@
       <c r="H230" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I230" s="15"/>
+      <c r="I230" s="14"/>
       <c r="J230" s="5"/>
     </row>
-    <row r="231" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="6">
         <v>10101</v>
       </c>
@@ -17300,10 +17343,10 @@
       <c r="H231" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I231" s="15"/>
+      <c r="I231" s="14"/>
       <c r="J231" s="5"/>
     </row>
-    <row r="232" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" s="6">
         <v>10102</v>
       </c>
@@ -17328,10 +17371,10 @@
       <c r="H232" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I232" s="15"/>
+      <c r="I232" s="14"/>
       <c r="J232" s="5"/>
     </row>
-    <row r="233" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6">
         <v>10103</v>
       </c>
@@ -17352,10 +17395,10 @@
       <c r="H233" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I233" s="15"/>
+      <c r="I233" s="14"/>
       <c r="J233" s="5"/>
     </row>
-    <row r="234" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6">
         <v>10104</v>
       </c>
@@ -17380,10 +17423,10 @@
       <c r="H234" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I234" s="15"/>
+      <c r="I234" s="14"/>
       <c r="J234" s="5"/>
     </row>
-    <row r="235" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6">
         <v>10105</v>
       </c>
@@ -17408,10 +17451,10 @@
       <c r="H235" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I235" s="15"/>
+      <c r="I235" s="14"/>
       <c r="J235" s="5"/>
     </row>
-    <row r="236" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="6">
         <v>10106</v>
       </c>
@@ -17436,10 +17479,10 @@
       <c r="H236" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I236" s="15"/>
+      <c r="I236" s="14"/>
       <c r="J236" s="5"/>
     </row>
-    <row r="237" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
         <v>10107</v>
       </c>
@@ -17464,10 +17507,10 @@
       <c r="H237" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I237" s="15"/>
+      <c r="I237" s="14"/>
       <c r="J237" s="5"/>
     </row>
-    <row r="238" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A238" s="6">
         <v>10108</v>
       </c>
@@ -17492,10 +17535,10 @@
       <c r="H238" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I238" s="15"/>
+      <c r="I238" s="14"/>
       <c r="J238" s="5"/>
     </row>
-    <row r="239" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A239" s="6">
         <v>10109</v>
       </c>
@@ -17520,10 +17563,10 @@
       <c r="H239" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I239" s="15"/>
+      <c r="I239" s="14"/>
       <c r="J239" s="5"/>
     </row>
-    <row r="240" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6">
         <v>10201</v>
       </c>
@@ -17548,10 +17591,10 @@
       <c r="H240" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I240" s="15"/>
+      <c r="I240" s="14"/>
       <c r="J240" s="5"/>
     </row>
-    <row r="241" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
         <v>10202</v>
       </c>
@@ -17576,10 +17619,10 @@
       <c r="H241" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I241" s="15"/>
+      <c r="I241" s="14"/>
       <c r="J241" s="5"/>
     </row>
-    <row r="242" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6">
         <v>10203</v>
       </c>
@@ -17604,10 +17647,10 @@
       <c r="H242" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I242" s="15"/>
+      <c r="I242" s="14"/>
       <c r="J242" s="5"/>
     </row>
-    <row r="243" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6">
         <v>10204</v>
       </c>
@@ -17632,10 +17675,10 @@
       <c r="H243" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I243" s="15"/>
+      <c r="I243" s="14"/>
       <c r="J243" s="5"/>
     </row>
-    <row r="244" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6">
         <v>10205</v>
       </c>
@@ -17660,10 +17703,10 @@
       <c r="H244" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I244" s="15"/>
+      <c r="I244" s="14"/>
       <c r="J244" s="5"/>
     </row>
-    <row r="245" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" s="6">
         <v>10206</v>
       </c>
@@ -17688,10 +17731,10 @@
       <c r="H245" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I245" s="15"/>
+      <c r="I245" s="14"/>
       <c r="J245" s="5"/>
     </row>
-    <row r="246" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" s="6">
         <v>10207</v>
       </c>
@@ -17716,10 +17759,10 @@
       <c r="H246" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I246" s="15"/>
+      <c r="I246" s="14"/>
       <c r="J246" s="5"/>
     </row>
-    <row r="247" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6">
         <v>10208</v>
       </c>
@@ -17744,10 +17787,10 @@
       <c r="H247" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I247" s="15"/>
+      <c r="I247" s="14"/>
       <c r="J247" s="5"/>
     </row>
-    <row r="248" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" s="6">
         <v>10209</v>
       </c>
@@ -17772,10 +17815,10 @@
       <c r="H248" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I248" s="15"/>
+      <c r="I248" s="14"/>
       <c r="J248" s="5"/>
     </row>
-    <row r="249" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6">
         <v>10210</v>
       </c>
@@ -17800,10 +17843,10 @@
       <c r="H249" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I249" s="15"/>
+      <c r="I249" s="14"/>
       <c r="J249" s="5"/>
     </row>
-    <row r="250" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" s="6">
         <v>10301</v>
       </c>
@@ -17828,10 +17871,10 @@
       <c r="H250" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I250" s="15"/>
+      <c r="I250" s="14"/>
       <c r="J250" s="5"/>
     </row>
-    <row r="251" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" s="6">
         <v>10302</v>
       </c>
@@ -17856,10 +17899,10 @@
       <c r="H251" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I251" s="15"/>
+      <c r="I251" s="14"/>
       <c r="J251" s="5"/>
     </row>
-    <row r="252" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6">
         <v>10303</v>
       </c>
@@ -17884,10 +17927,10 @@
       <c r="H252" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I252" s="15"/>
+      <c r="I252" s="14"/>
       <c r="J252" s="5"/>
     </row>
-    <row r="253" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="6">
         <v>10304</v>
       </c>
@@ -17912,10 +17955,10 @@
       <c r="H253" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I253" s="15"/>
+      <c r="I253" s="14"/>
       <c r="J253" s="5"/>
     </row>
-    <row r="254" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="6">
         <v>10305</v>
       </c>
@@ -17940,10 +17983,10 @@
       <c r="H254" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I254" s="15"/>
+      <c r="I254" s="14"/>
       <c r="J254" s="5"/>
     </row>
-    <row r="255" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6">
         <v>10306</v>
       </c>
@@ -17968,10 +18011,10 @@
       <c r="H255" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I255" s="15"/>
+      <c r="I255" s="14"/>
       <c r="J255" s="5"/>
     </row>
-    <row r="256" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A256" s="6">
         <v>10307</v>
       </c>
@@ -17996,10 +18039,10 @@
       <c r="H256" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I256" s="15"/>
+      <c r="I256" s="14"/>
       <c r="J256" s="5"/>
     </row>
-    <row r="257" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A257" s="6">
         <v>10401</v>
       </c>
@@ -18020,10 +18063,10 @@
       <c r="H257" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I257" s="15"/>
+      <c r="I257" s="14"/>
       <c r="J257" s="5"/>
     </row>
-    <row r="258" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A258" s="6">
         <v>10402</v>
       </c>
@@ -18044,10 +18087,10 @@
       <c r="H258" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I258" s="15"/>
+      <c r="I258" s="14"/>
       <c r="J258" s="5"/>
     </row>
-    <row r="259" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A259" s="6">
         <v>10403</v>
       </c>
@@ -18068,10 +18111,10 @@
       <c r="H259" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I259" s="15"/>
+      <c r="I259" s="14"/>
       <c r="J259" s="5"/>
     </row>
-    <row r="260" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A260" s="6">
         <v>10404</v>
       </c>
@@ -18092,10 +18135,10 @@
       <c r="H260" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I260" s="15"/>
+      <c r="I260" s="14"/>
       <c r="J260" s="5"/>
     </row>
-    <row r="261" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" s="6">
         <v>11101</v>
       </c>
@@ -18120,10 +18163,10 @@
       <c r="H261" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I261" s="15"/>
+      <c r="I261" s="14"/>
       <c r="J261" s="5"/>
     </row>
-    <row r="262" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" s="6">
         <v>11102</v>
       </c>
@@ -18144,10 +18187,10 @@
       <c r="H262" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I262" s="15"/>
+      <c r="I262" s="14"/>
       <c r="J262" s="5"/>
     </row>
-    <row r="263" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" s="6">
         <v>11201</v>
       </c>
@@ -18172,10 +18215,10 @@
       <c r="H263" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I263" s="15"/>
+      <c r="I263" s="14"/>
       <c r="J263" s="5"/>
     </row>
-    <row r="264" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" s="6">
         <v>11202</v>
       </c>
@@ -18200,10 +18243,10 @@
       <c r="H264" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I264" s="15"/>
+      <c r="I264" s="14"/>
       <c r="J264" s="5"/>
     </row>
-    <row r="265" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" s="6">
         <v>11203</v>
       </c>
@@ -18224,10 +18267,10 @@
       <c r="H265" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I265" s="15"/>
+      <c r="I265" s="14"/>
       <c r="J265" s="5"/>
     </row>
-    <row r="266" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6">
         <v>11301</v>
       </c>
@@ -18252,10 +18295,10 @@
       <c r="H266" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I266" s="15"/>
+      <c r="I266" s="14"/>
       <c r="J266" s="5"/>
     </row>
-    <row r="267" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" s="6">
         <v>11302</v>
       </c>
@@ -18276,10 +18319,10 @@
       <c r="H267" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I267" s="15"/>
+      <c r="I267" s="14"/>
       <c r="J267" s="5"/>
     </row>
-    <row r="268" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6">
         <v>11303</v>
       </c>
@@ -18300,10 +18343,10 @@
       <c r="H268" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I268" s="15"/>
+      <c r="I268" s="14"/>
       <c r="J268" s="5"/>
     </row>
-    <row r="269" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6">
         <v>11401</v>
       </c>
@@ -18328,10 +18371,10 @@
       <c r="H269" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I269" s="15"/>
+      <c r="I269" s="14"/>
       <c r="J269" s="5"/>
     </row>
-    <row r="270" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6">
         <v>11402</v>
       </c>
@@ -18356,10 +18399,10 @@
       <c r="H270" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I270" s="15"/>
+      <c r="I270" s="14"/>
       <c r="J270" s="5"/>
     </row>
-    <row r="271" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6">
         <v>12101</v>
       </c>
@@ -18384,10 +18427,10 @@
       <c r="H271" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I271" s="15"/>
+      <c r="I271" s="14"/>
       <c r="J271" s="5"/>
     </row>
-    <row r="272" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" s="6">
         <v>12102</v>
       </c>
@@ -18408,10 +18451,10 @@
       <c r="H272" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I272" s="15"/>
+      <c r="I272" s="14"/>
       <c r="J272" s="5"/>
     </row>
-    <row r="273" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" s="6">
         <v>12103</v>
       </c>
@@ -18432,10 +18475,10 @@
       <c r="H273" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I273" s="15"/>
+      <c r="I273" s="14"/>
       <c r="J273" s="5"/>
     </row>
-    <row r="274" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A274" s="6">
         <v>12104</v>
       </c>
@@ -18456,10 +18499,10 @@
       <c r="H274" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I274" s="15"/>
+      <c r="I274" s="14"/>
       <c r="J274" s="5"/>
     </row>
-    <row r="275" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A275" s="6">
         <v>12201</v>
       </c>
@@ -18480,10 +18523,10 @@
       <c r="H275" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I275" s="15"/>
+      <c r="I275" s="14"/>
       <c r="J275" s="5"/>
     </row>
-    <row r="276" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6">
         <v>12301</v>
       </c>
@@ -18508,10 +18551,10 @@
       <c r="H276" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I276" s="15"/>
+      <c r="I276" s="14"/>
       <c r="J276" s="5"/>
     </row>
-    <row r="277" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6">
         <v>12302</v>
       </c>
@@ -18532,10 +18575,10 @@
       <c r="H277" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I277" s="15"/>
+      <c r="I277" s="14"/>
       <c r="J277" s="5"/>
     </row>
-    <row r="278" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6">
         <v>12303</v>
       </c>
@@ -18556,10 +18599,10 @@
       <c r="H278" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I278" s="15"/>
+      <c r="I278" s="14"/>
       <c r="J278" s="5"/>
     </row>
-    <row r="279" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6">
         <v>12401</v>
       </c>
@@ -18584,10 +18627,10 @@
       <c r="H279" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I279" s="15"/>
+      <c r="I279" s="14"/>
       <c r="J279" s="5"/>
     </row>
-    <row r="280" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="6">
         <v>12402</v>
       </c>
@@ -18608,10 +18651,10 @@
       <c r="H280" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I280" s="15"/>
+      <c r="I280" s="14"/>
       <c r="J280" s="5"/>
     </row>
-    <row r="281" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6">
         <v>13101</v>
       </c>
@@ -18636,10 +18679,10 @@
       <c r="H281" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I281" s="15"/>
+      <c r="I281" s="14"/>
       <c r="J281" s="5"/>
     </row>
-    <row r="282" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6">
         <v>13102</v>
       </c>
@@ -18664,10 +18707,10 @@
       <c r="H282" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I282" s="15"/>
+      <c r="I282" s="14"/>
       <c r="J282" s="5"/>
     </row>
-    <row r="283" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="6">
         <v>13103</v>
       </c>
@@ -18692,10 +18735,10 @@
       <c r="H283" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I283" s="15"/>
+      <c r="I283" s="14"/>
       <c r="J283" s="5"/>
     </row>
-    <row r="284" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6">
         <v>13104</v>
       </c>
@@ -18720,10 +18763,10 @@
       <c r="H284" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I284" s="15"/>
+      <c r="I284" s="14"/>
       <c r="J284" s="5"/>
     </row>
-    <row r="285" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="6">
         <v>13105</v>
       </c>
@@ -18748,10 +18791,10 @@
       <c r="H285" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I285" s="15"/>
+      <c r="I285" s="14"/>
       <c r="J285" s="5"/>
     </row>
-    <row r="286" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="6">
         <v>13106</v>
       </c>
@@ -18776,10 +18819,10 @@
       <c r="H286" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I286" s="15"/>
+      <c r="I286" s="14"/>
       <c r="J286" s="5"/>
     </row>
-    <row r="287" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="6">
         <v>13107</v>
       </c>
@@ -18804,10 +18847,10 @@
       <c r="H287" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I287" s="15"/>
+      <c r="I287" s="14"/>
       <c r="J287" s="5"/>
     </row>
-    <row r="288" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="6">
         <v>13108</v>
       </c>
@@ -18832,10 +18875,10 @@
       <c r="H288" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I288" s="15"/>
+      <c r="I288" s="14"/>
       <c r="J288" s="5"/>
     </row>
-    <row r="289" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="6">
         <v>13109</v>
       </c>
@@ -18860,10 +18903,10 @@
       <c r="H289" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I289" s="15"/>
+      <c r="I289" s="14"/>
       <c r="J289" s="5"/>
     </row>
-    <row r="290" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6">
         <v>13110</v>
       </c>
@@ -18888,10 +18931,10 @@
       <c r="H290" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I290" s="15"/>
+      <c r="I290" s="14"/>
       <c r="J290" s="5"/>
     </row>
-    <row r="291" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A291" s="6">
         <v>13111</v>
       </c>
@@ -18916,10 +18959,10 @@
       <c r="H291" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I291" s="15"/>
+      <c r="I291" s="14"/>
       <c r="J291" s="5"/>
     </row>
-    <row r="292" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A292" s="6">
         <v>13112</v>
       </c>
@@ -18944,10 +18987,10 @@
       <c r="H292" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I292" s="15"/>
+      <c r="I292" s="14"/>
       <c r="J292" s="5"/>
     </row>
-    <row r="293" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" s="6">
         <v>13113</v>
       </c>
@@ -18972,10 +19015,10 @@
       <c r="H293" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I293" s="15"/>
+      <c r="I293" s="14"/>
       <c r="J293" s="5"/>
     </row>
-    <row r="294" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="6">
         <v>13114</v>
       </c>
@@ -19000,10 +19043,10 @@
       <c r="H294" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I294" s="15"/>
+      <c r="I294" s="14"/>
       <c r="J294" s="5"/>
     </row>
-    <row r="295" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="6">
         <v>13115</v>
       </c>
@@ -19028,10 +19071,10 @@
       <c r="H295" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I295" s="15"/>
+      <c r="I295" s="14"/>
       <c r="J295" s="5"/>
     </row>
-    <row r="296" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="6">
         <v>13116</v>
       </c>
@@ -19056,10 +19099,10 @@
       <c r="H296" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I296" s="15"/>
+      <c r="I296" s="14"/>
       <c r="J296" s="5"/>
     </row>
-    <row r="297" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="6">
         <v>13117</v>
       </c>
@@ -19084,10 +19127,10 @@
       <c r="H297" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I297" s="15"/>
+      <c r="I297" s="14"/>
       <c r="J297" s="5"/>
     </row>
-    <row r="298" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="6">
         <v>13118</v>
       </c>
@@ -19112,10 +19155,10 @@
       <c r="H298" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I298" s="15"/>
+      <c r="I298" s="14"/>
       <c r="J298" s="5"/>
     </row>
-    <row r="299" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" s="6">
         <v>13119</v>
       </c>
@@ -19140,10 +19183,10 @@
       <c r="H299" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I299" s="15"/>
+      <c r="I299" s="14"/>
       <c r="J299" s="5"/>
     </row>
-    <row r="300" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="6">
         <v>13120</v>
       </c>
@@ -19168,10 +19211,10 @@
       <c r="H300" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I300" s="15"/>
+      <c r="I300" s="14"/>
       <c r="J300" s="5"/>
     </row>
-    <row r="301" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="6">
         <v>13121</v>
       </c>
@@ -19196,10 +19239,10 @@
       <c r="H301" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I301" s="15"/>
+      <c r="I301" s="14"/>
       <c r="J301" s="5"/>
     </row>
-    <row r="302" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="6">
         <v>13122</v>
       </c>
@@ -19224,10 +19267,10 @@
       <c r="H302" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I302" s="15"/>
+      <c r="I302" s="14"/>
       <c r="J302" s="5"/>
     </row>
-    <row r="303" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A303" s="6">
         <v>13123</v>
       </c>
@@ -19252,10 +19295,10 @@
       <c r="H303" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I303" s="15"/>
+      <c r="I303" s="14"/>
       <c r="J303" s="5"/>
     </row>
-    <row r="304" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A304" s="6">
         <v>13124</v>
       </c>
@@ -19280,10 +19323,10 @@
       <c r="H304" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I304" s="15"/>
+      <c r="I304" s="14"/>
       <c r="J304" s="5"/>
     </row>
-    <row r="305" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="6">
         <v>13125</v>
       </c>
@@ -19308,10 +19351,10 @@
       <c r="H305" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I305" s="15"/>
+      <c r="I305" s="14"/>
       <c r="J305" s="5"/>
     </row>
-    <row r="306" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="6">
         <v>13126</v>
       </c>
@@ -19336,10 +19379,10 @@
       <c r="H306" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I306" s="15"/>
+      <c r="I306" s="14"/>
       <c r="J306" s="5"/>
     </row>
-    <row r="307" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="6">
         <v>13127</v>
       </c>
@@ -19364,10 +19407,10 @@
       <c r="H307" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I307" s="15"/>
+      <c r="I307" s="14"/>
       <c r="J307" s="5"/>
     </row>
-    <row r="308" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="6">
         <v>13128</v>
       </c>
@@ -19392,10 +19435,10 @@
       <c r="H308" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I308" s="15"/>
+      <c r="I308" s="14"/>
       <c r="J308" s="5"/>
     </row>
-    <row r="309" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" s="6">
         <v>13129</v>
       </c>
@@ -19420,10 +19463,10 @@
       <c r="H309" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I309" s="15"/>
+      <c r="I309" s="14"/>
       <c r="J309" s="5"/>
     </row>
-    <row r="310" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="6">
         <v>13130</v>
       </c>
@@ -19448,10 +19491,10 @@
       <c r="H310" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I310" s="15"/>
+      <c r="I310" s="14"/>
       <c r="J310" s="5"/>
     </row>
-    <row r="311" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="6">
         <v>13131</v>
       </c>
@@ -19476,10 +19519,10 @@
       <c r="H311" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I311" s="15"/>
+      <c r="I311" s="14"/>
       <c r="J311" s="5"/>
     </row>
-    <row r="312" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" s="6">
         <v>13132</v>
       </c>
@@ -19504,10 +19547,10 @@
       <c r="H312" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I312" s="15"/>
+      <c r="I312" s="14"/>
       <c r="J312" s="5"/>
     </row>
-    <row r="313" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="6">
         <v>13201</v>
       </c>
@@ -19532,10 +19575,10 @@
       <c r="H313" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I313" s="15"/>
+      <c r="I313" s="14"/>
       <c r="J313" s="5"/>
     </row>
-    <row r="314" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="6">
         <v>13202</v>
       </c>
@@ -19560,10 +19603,10 @@
       <c r="H314" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I314" s="15"/>
+      <c r="I314" s="14"/>
       <c r="J314" s="5"/>
     </row>
-    <row r="315" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="6">
         <v>13203</v>
       </c>
@@ -19588,10 +19631,10 @@
       <c r="H315" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I315" s="15"/>
+      <c r="I315" s="14"/>
       <c r="J315" s="5"/>
     </row>
-    <row r="316" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="6">
         <v>13301</v>
       </c>
@@ -19616,10 +19659,10 @@
       <c r="H316" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I316" s="15"/>
+      <c r="I316" s="14"/>
       <c r="J316" s="5"/>
     </row>
-    <row r="317" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="6">
         <v>13302</v>
       </c>
@@ -19644,10 +19687,10 @@
       <c r="H317" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I317" s="15"/>
+      <c r="I317" s="14"/>
       <c r="J317" s="5"/>
     </row>
-    <row r="318" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A318" s="6">
         <v>13303</v>
       </c>
@@ -19672,10 +19715,10 @@
       <c r="H318" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I318" s="15"/>
+      <c r="I318" s="14"/>
       <c r="J318" s="5"/>
     </row>
-    <row r="319" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A319" s="6">
         <v>13401</v>
       </c>
@@ -19700,10 +19743,10 @@
       <c r="H319" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I319" s="15"/>
+      <c r="I319" s="14"/>
       <c r="J319" s="5"/>
     </row>
-    <row r="320" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="6">
         <v>13402</v>
       </c>
@@ -19728,10 +19771,10 @@
       <c r="H320" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I320" s="15"/>
+      <c r="I320" s="14"/>
       <c r="J320" s="5"/>
     </row>
-    <row r="321" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="6">
         <v>13403</v>
       </c>
@@ -19756,10 +19799,10 @@
       <c r="H321" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I321" s="15"/>
+      <c r="I321" s="14"/>
       <c r="J321" s="5"/>
     </row>
-    <row r="322" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="6">
         <v>13404</v>
       </c>
@@ -19784,10 +19827,10 @@
       <c r="H322" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I322" s="15"/>
+      <c r="I322" s="14"/>
       <c r="J322" s="5"/>
     </row>
-    <row r="323" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="6">
         <v>13501</v>
       </c>
@@ -19812,10 +19855,10 @@
       <c r="H323" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I323" s="15"/>
+      <c r="I323" s="14"/>
       <c r="J323" s="5"/>
     </row>
-    <row r="324" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A324" s="6">
         <v>13502</v>
       </c>
@@ -19840,10 +19883,10 @@
       <c r="H324" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I324" s="15"/>
+      <c r="I324" s="14"/>
       <c r="J324" s="5"/>
     </row>
-    <row r="325" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="6">
         <v>13503</v>
       </c>
@@ -19868,10 +19911,10 @@
       <c r="H325" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I325" s="15"/>
+      <c r="I325" s="14"/>
       <c r="J325" s="5"/>
     </row>
-    <row r="326" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A326" s="6">
         <v>13504</v>
       </c>
@@ -19896,10 +19939,10 @@
       <c r="H326" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I326" s="15"/>
+      <c r="I326" s="14"/>
       <c r="J326" s="5"/>
     </row>
-    <row r="327" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A327" s="6">
         <v>13505</v>
       </c>
@@ -19924,10 +19967,10 @@
       <c r="H327" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I327" s="15"/>
+      <c r="I327" s="14"/>
       <c r="J327" s="5"/>
     </row>
-    <row r="328" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A328" s="6">
         <v>13601</v>
       </c>
@@ -19952,10 +19995,10 @@
       <c r="H328" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I328" s="15"/>
+      <c r="I328" s="14"/>
       <c r="J328" s="5"/>
     </row>
-    <row r="329" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A329" s="6">
         <v>13602</v>
       </c>
@@ -19980,10 +20023,10 @@
       <c r="H329" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I329" s="15"/>
+      <c r="I329" s="14"/>
       <c r="J329" s="5"/>
     </row>
-    <row r="330" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A330" s="6">
         <v>13603</v>
       </c>
@@ -20008,10 +20051,10 @@
       <c r="H330" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I330" s="15"/>
+      <c r="I330" s="14"/>
       <c r="J330" s="5"/>
     </row>
-    <row r="331" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="6">
         <v>13604</v>
       </c>
@@ -20036,10 +20079,10 @@
       <c r="H331" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I331" s="15"/>
+      <c r="I331" s="14"/>
       <c r="J331" s="5"/>
     </row>
-    <row r="332" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A332" s="6">
         <v>13605</v>
       </c>
@@ -20064,10 +20107,10 @@
       <c r="H332" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I332" s="15"/>
+      <c r="I332" s="14"/>
       <c r="J332" s="5"/>
     </row>
-    <row r="333" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="6">
         <v>14101</v>
       </c>
@@ -20092,10 +20135,10 @@
       <c r="H333" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I333" s="15"/>
+      <c r="I333" s="14"/>
       <c r="J333" s="5"/>
     </row>
-    <row r="334" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="6">
         <v>14102</v>
       </c>
@@ -20120,10 +20163,10 @@
       <c r="H334" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I334" s="15"/>
+      <c r="I334" s="14"/>
       <c r="J334" s="5"/>
     </row>
-    <row r="335" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="6">
         <v>14103</v>
       </c>
@@ -20148,10 +20191,10 @@
       <c r="H335" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I335" s="15"/>
+      <c r="I335" s="14"/>
       <c r="J335" s="5"/>
     </row>
-    <row r="336" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="6">
         <v>14104</v>
       </c>
@@ -20176,10 +20219,10 @@
       <c r="H336" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I336" s="15"/>
+      <c r="I336" s="14"/>
       <c r="J336" s="5"/>
     </row>
-    <row r="337" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" s="6">
         <v>14105</v>
       </c>
@@ -20204,10 +20247,10 @@
       <c r="H337" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I337" s="15"/>
+      <c r="I337" s="14"/>
       <c r="J337" s="5"/>
     </row>
-    <row r="338" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="6">
         <v>14106</v>
       </c>
@@ -20232,10 +20275,10 @@
       <c r="H338" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I338" s="15"/>
+      <c r="I338" s="14"/>
       <c r="J338" s="5"/>
     </row>
-    <row r="339" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="6">
         <v>14107</v>
       </c>
@@ -20260,10 +20303,10 @@
       <c r="H339" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I339" s="15"/>
+      <c r="I339" s="14"/>
       <c r="J339" s="5"/>
     </row>
-    <row r="340" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="6">
         <v>14108</v>
       </c>
@@ -20288,10 +20331,10 @@
       <c r="H340" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I340" s="15"/>
+      <c r="I340" s="14"/>
       <c r="J340" s="5"/>
     </row>
-    <row r="341" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="6">
         <v>14201</v>
       </c>
@@ -20316,10 +20359,10 @@
       <c r="H341" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I341" s="15"/>
+      <c r="I341" s="14"/>
       <c r="J341" s="5"/>
     </row>
-    <row r="342" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A342" s="6">
         <v>14202</v>
       </c>
@@ -20344,10 +20387,10 @@
       <c r="H342" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I342" s="15"/>
+      <c r="I342" s="14"/>
       <c r="J342" s="5"/>
     </row>
-    <row r="343" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="6">
         <v>14203</v>
       </c>
@@ -20372,10 +20415,10 @@
       <c r="H343" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I343" s="15"/>
+      <c r="I343" s="14"/>
       <c r="J343" s="5"/>
     </row>
-    <row r="344" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="6">
         <v>14204</v>
       </c>
@@ -20400,10 +20443,10 @@
       <c r="H344" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I344" s="15"/>
+      <c r="I344" s="14"/>
       <c r="J344" s="5"/>
     </row>
-    <row r="345" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="6">
         <v>15101</v>
       </c>
@@ -20428,10 +20471,10 @@
       <c r="H345" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I345" s="15"/>
+      <c r="I345" s="14"/>
       <c r="J345" s="5"/>
     </row>
-    <row r="346" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A346" s="6">
         <v>15102</v>
       </c>
@@ -20456,10 +20499,10 @@
       <c r="H346" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I346" s="15"/>
+      <c r="I346" s="14"/>
       <c r="J346" s="5"/>
     </row>
-    <row r="347" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A347" s="6">
         <v>15201</v>
       </c>
@@ -20484,10 +20527,10 @@
       <c r="H347" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I347" s="15"/>
+      <c r="I347" s="14"/>
       <c r="J347" s="5"/>
     </row>
-    <row r="348" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A348" s="6">
         <v>15202</v>
       </c>
@@ -20508,14 +20551,14 @@
       <c r="H348" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I348" s="15"/>
+      <c r="I348" s="14"/>
       <c r="J348" s="5"/>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J349" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H348"/>
+  <autoFilter ref="A3:H348" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
